--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0297431997589328</v>
+        <v>0.02974319975889017</v>
       </c>
       <c r="D2">
-        <v>0.1059182208505121</v>
+        <v>0.1059182208506755</v>
       </c>
       <c r="E2">
-        <v>1.548929927410342</v>
+        <v>1.548929927410327</v>
       </c>
       <c r="F2">
-        <v>2.0655050307452</v>
+        <v>2.065505030745157</v>
       </c>
       <c r="G2">
-        <v>1.817094859044232</v>
+        <v>1.817094859044161</v>
       </c>
       <c r="H2">
-        <v>1.607766124461378</v>
+        <v>1.607766124461335</v>
       </c>
       <c r="I2">
         <v>1.031240717798731</v>
@@ -442,7 +442,7 @@
         <v>1.147163312311861</v>
       </c>
       <c r="L2">
-        <v>37.17911342029771</v>
+        <v>37.17911342029777</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>0.02478143891084272</v>
       </c>
       <c r="D3">
-        <v>0.0830586914455651</v>
+        <v>0.08305869144528799</v>
       </c>
       <c r="E3">
-        <v>1.271322329641976</v>
+        <v>1.271322329642018</v>
       </c>
       <c r="F3">
-        <v>1.498482403082903</v>
+        <v>1.498482403082932</v>
       </c>
       <c r="G3">
-        <v>1.327065686031531</v>
+        <v>1.32706568603156</v>
       </c>
       <c r="H3">
-        <v>1.166870717882517</v>
+        <v>1.166870717882546</v>
       </c>
       <c r="I3">
-        <v>0.8318232648763271</v>
+        <v>0.8318232648763342</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9363293812685924</v>
+        <v>0.9363293812685995</v>
       </c>
       <c r="L3">
-        <v>30.91208159205638</v>
+        <v>30.91208159205644</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02198109243002477</v>
+        <v>0.02198109243029478</v>
       </c>
       <c r="D4">
-        <v>0.07114549241370582</v>
+        <v>0.07114549241381241</v>
       </c>
       <c r="E4">
-        <v>1.12077225901993</v>
+        <v>1.120772259019958</v>
       </c>
       <c r="F4">
-        <v>1.228215797718349</v>
+        <v>1.228215797718363</v>
       </c>
       <c r="G4">
-        <v>1.091772078961853</v>
+        <v>1.091772078961881</v>
       </c>
       <c r="H4">
-        <v>0.9564074612977151</v>
+        <v>0.9564074612977294</v>
       </c>
       <c r="I4">
-        <v>0.7263818770940205</v>
+        <v>0.7263818770940347</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8229418394266474</v>
+        <v>0.8229418394266617</v>
       </c>
       <c r="L4">
-        <v>27.43141494626565</v>
+        <v>27.4314149462657</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0208834966823801</v>
+        <v>0.02088349668214562</v>
       </c>
       <c r="D5">
-        <v>0.06666113338687296</v>
+        <v>0.06666113338660296</v>
       </c>
       <c r="E5">
-        <v>1.062750957644653</v>
+        <v>1.062750957644667</v>
       </c>
       <c r="F5">
         <v>1.131676523114848</v>
       </c>
       <c r="G5">
-        <v>1.007336298214369</v>
+        <v>1.007336298214327</v>
       </c>
       <c r="H5">
-        <v>0.881155986558106</v>
+        <v>0.8811559865581131</v>
       </c>
       <c r="I5">
         <v>0.6862572535002727</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7794223156439912</v>
+        <v>0.7794223156440268</v>
       </c>
       <c r="L5">
-        <v>26.07501765789925</v>
+        <v>26.07501765789942</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02070347559089214</v>
+        <v>0.02070347559068608</v>
       </c>
       <c r="D6">
-        <v>0.06593542641660832</v>
+        <v>0.06593542641651595</v>
       </c>
       <c r="E6">
-        <v>1.053283048998111</v>
+        <v>1.053283048998082</v>
       </c>
       <c r="F6">
-        <v>1.116342190941751</v>
+        <v>1.116342190941708</v>
       </c>
       <c r="G6">
-        <v>0.9939016947015347</v>
+        <v>0.9939016947015062</v>
       </c>
       <c r="H6">
-        <v>0.869198595155865</v>
+        <v>0.8691985951558436</v>
       </c>
       <c r="I6">
-        <v>0.6797368683605143</v>
+        <v>0.6797368683605214</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7723303100081864</v>
+        <v>0.7723303100081722</v>
       </c>
       <c r="L6">
-        <v>25.85289862266097</v>
+        <v>25.85289862266109</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02196613217473242</v>
+        <v>0.02196613217459742</v>
       </c>
       <c r="D7">
-        <v>0.07108367816672967</v>
+        <v>0.07108367816671546</v>
       </c>
       <c r="E7">
-        <v>1.119977922047056</v>
+        <v>1.11997792204707</v>
       </c>
       <c r="F7">
-        <v>1.226864705197102</v>
+        <v>1.22686470519713</v>
       </c>
       <c r="G7">
-        <v>1.090591984817905</v>
+        <v>1.090591984817934</v>
       </c>
       <c r="H7">
-        <v>0.9553546068464271</v>
+        <v>0.9553546068464414</v>
       </c>
       <c r="I7">
-        <v>0.725830624904269</v>
+        <v>0.7258306249042974</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8223453625572219</v>
+        <v>0.8223453625572006</v>
       </c>
       <c r="L7">
-        <v>27.41290107997617</v>
+        <v>27.41290107997594</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02796718827369915</v>
+        <v>0.02796718827371336</v>
       </c>
       <c r="D8">
-        <v>0.09746772356546529</v>
+        <v>0.09746772356557187</v>
       </c>
       <c r="E8">
-        <v>1.447745928973859</v>
+        <v>1.447745928973873</v>
       </c>
       <c r="F8">
         <v>1.849105164395624</v>
       </c>
       <c r="G8">
-        <v>1.630542625237155</v>
+        <v>1.630542625237126</v>
       </c>
       <c r="H8">
         <v>1.439583442630536</v>
       </c>
       <c r="I8">
-        <v>0.9578107382487318</v>
+        <v>0.9578107382486962</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.070055353224078</v>
+        <v>1.070055353224092</v>
       </c>
       <c r="L8">
-        <v>34.91805356850102</v>
+        <v>34.91805356850091</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D9">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E9">
         <v>2.462907196065728</v>
       </c>
       <c r="F9">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G9">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H9">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I9">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L9">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D10">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E10">
         <v>2.462907196065728</v>
       </c>
       <c r="F10">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G10">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H10">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I10">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L10">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D11">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E11">
         <v>2.462907196065728</v>
       </c>
       <c r="F11">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G11">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H11">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I11">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L11">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D12">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E12">
         <v>2.462907196065728</v>
       </c>
       <c r="F12">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G12">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H12">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I12">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L12">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D13">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E13">
         <v>2.462907196065728</v>
       </c>
       <c r="F13">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G13">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H13">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I13">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L13">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D14">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E14">
         <v>2.462907196065728</v>
       </c>
       <c r="F14">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G14">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H14">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I14">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L14">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D15">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E15">
         <v>2.462907196065728</v>
       </c>
       <c r="F15">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G15">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H15">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I15">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L15">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D16">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E16">
         <v>2.462907196065728</v>
       </c>
       <c r="F16">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G16">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H16">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I16">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L16">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D17">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E17">
         <v>2.462907196065728</v>
       </c>
       <c r="F17">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G17">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H17">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I17">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L17">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D18">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E18">
         <v>2.462907196065728</v>
       </c>
       <c r="F18">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G18">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H18">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I18">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L18">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D19">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E19">
         <v>2.462907196065728</v>
       </c>
       <c r="F19">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G19">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H19">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I19">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L19">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D20">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E20">
         <v>2.462907196065728</v>
       </c>
       <c r="F20">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G20">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H20">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I20">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L20">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D21">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E21">
         <v>2.462907196065728</v>
       </c>
       <c r="F21">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G21">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H21">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I21">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L21">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D22">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E22">
         <v>2.462907196065728</v>
       </c>
       <c r="F22">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G22">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H22">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I22">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L22">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D23">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E23">
         <v>2.462907196065728</v>
       </c>
       <c r="F23">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G23">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H23">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I23">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L23">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D24">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E24">
         <v>2.462907196065728</v>
       </c>
       <c r="F24">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G24">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H24">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I24">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L24">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04371747645706847</v>
+        <v>0.043717476457239</v>
       </c>
       <c r="D25">
-        <v>0.1855515479221594</v>
+        <v>0.1855515479223442</v>
       </c>
       <c r="E25">
         <v>2.462907196065728</v>
       </c>
       <c r="F25">
-        <v>4.424121969846638</v>
+        <v>4.424121969846738</v>
       </c>
       <c r="G25">
-        <v>3.829264170670072</v>
+        <v>3.829264170670172</v>
       </c>
       <c r="H25">
-        <v>3.437481591219466</v>
+        <v>3.437481591219523</v>
       </c>
       <c r="I25">
-        <v>1.732037844575814</v>
+        <v>1.7320378445758</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.856843415201354</v>
+        <v>1.856843415201368</v>
       </c>
       <c r="L25">
-        <v>56.28855198016709</v>
+        <v>56.28855198016726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02974319975889017</v>
+        <v>0.0297431997589328</v>
       </c>
       <c r="D2">
-        <v>0.1059182208506755</v>
+        <v>0.1059182208505121</v>
       </c>
       <c r="E2">
-        <v>1.548929927410327</v>
+        <v>1.548929927410342</v>
       </c>
       <c r="F2">
-        <v>2.065505030745157</v>
+        <v>2.0655050307452</v>
       </c>
       <c r="G2">
-        <v>1.817094859044161</v>
+        <v>1.817094859044232</v>
       </c>
       <c r="H2">
-        <v>1.607766124461335</v>
+        <v>1.607766124461378</v>
       </c>
       <c r="I2">
         <v>1.031240717798731</v>
@@ -442,7 +442,7 @@
         <v>1.147163312311861</v>
       </c>
       <c r="L2">
-        <v>37.17911342029777</v>
+        <v>37.17911342029771</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>0.02478143891084272</v>
       </c>
       <c r="D3">
-        <v>0.08305869144528799</v>
+        <v>0.0830586914455651</v>
       </c>
       <c r="E3">
-        <v>1.271322329642018</v>
+        <v>1.271322329641976</v>
       </c>
       <c r="F3">
-        <v>1.498482403082932</v>
+        <v>1.498482403082903</v>
       </c>
       <c r="G3">
-        <v>1.32706568603156</v>
+        <v>1.327065686031531</v>
       </c>
       <c r="H3">
-        <v>1.166870717882546</v>
+        <v>1.166870717882517</v>
       </c>
       <c r="I3">
-        <v>0.8318232648763342</v>
+        <v>0.8318232648763271</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9363293812685995</v>
+        <v>0.9363293812685924</v>
       </c>
       <c r="L3">
-        <v>30.91208159205644</v>
+        <v>30.91208159205638</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02198109243029478</v>
+        <v>0.02198109243002477</v>
       </c>
       <c r="D4">
-        <v>0.07114549241381241</v>
+        <v>0.07114549241370582</v>
       </c>
       <c r="E4">
-        <v>1.120772259019958</v>
+        <v>1.12077225901993</v>
       </c>
       <c r="F4">
-        <v>1.228215797718363</v>
+        <v>1.228215797718349</v>
       </c>
       <c r="G4">
-        <v>1.091772078961881</v>
+        <v>1.091772078961853</v>
       </c>
       <c r="H4">
-        <v>0.9564074612977294</v>
+        <v>0.9564074612977151</v>
       </c>
       <c r="I4">
-        <v>0.7263818770940347</v>
+        <v>0.7263818770940205</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8229418394266617</v>
+        <v>0.8229418394266474</v>
       </c>
       <c r="L4">
-        <v>27.4314149462657</v>
+        <v>27.43141494626565</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02088349668214562</v>
+        <v>0.0208834966823801</v>
       </c>
       <c r="D5">
-        <v>0.06666113338660296</v>
+        <v>0.06666113338687296</v>
       </c>
       <c r="E5">
-        <v>1.062750957644667</v>
+        <v>1.062750957644653</v>
       </c>
       <c r="F5">
         <v>1.131676523114848</v>
       </c>
       <c r="G5">
-        <v>1.007336298214327</v>
+        <v>1.007336298214369</v>
       </c>
       <c r="H5">
-        <v>0.8811559865581131</v>
+        <v>0.881155986558106</v>
       </c>
       <c r="I5">
         <v>0.6862572535002727</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7794223156440268</v>
+        <v>0.7794223156439912</v>
       </c>
       <c r="L5">
-        <v>26.07501765789942</v>
+        <v>26.07501765789925</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02070347559068608</v>
+        <v>0.02070347559089214</v>
       </c>
       <c r="D6">
-        <v>0.06593542641651595</v>
+        <v>0.06593542641660832</v>
       </c>
       <c r="E6">
-        <v>1.053283048998082</v>
+        <v>1.053283048998111</v>
       </c>
       <c r="F6">
-        <v>1.116342190941708</v>
+        <v>1.116342190941751</v>
       </c>
       <c r="G6">
-        <v>0.9939016947015062</v>
+        <v>0.9939016947015347</v>
       </c>
       <c r="H6">
-        <v>0.8691985951558436</v>
+        <v>0.869198595155865</v>
       </c>
       <c r="I6">
-        <v>0.6797368683605214</v>
+        <v>0.6797368683605143</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7723303100081722</v>
+        <v>0.7723303100081864</v>
       </c>
       <c r="L6">
-        <v>25.85289862266109</v>
+        <v>25.85289862266097</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02196613217459742</v>
+        <v>0.02196613217473242</v>
       </c>
       <c r="D7">
-        <v>0.07108367816671546</v>
+        <v>0.07108367816672967</v>
       </c>
       <c r="E7">
-        <v>1.11997792204707</v>
+        <v>1.119977922047056</v>
       </c>
       <c r="F7">
-        <v>1.22686470519713</v>
+        <v>1.226864705197102</v>
       </c>
       <c r="G7">
-        <v>1.090591984817934</v>
+        <v>1.090591984817905</v>
       </c>
       <c r="H7">
-        <v>0.9553546068464414</v>
+        <v>0.9553546068464271</v>
       </c>
       <c r="I7">
-        <v>0.7258306249042974</v>
+        <v>0.725830624904269</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8223453625572006</v>
+        <v>0.8223453625572219</v>
       </c>
       <c r="L7">
-        <v>27.41290107997594</v>
+        <v>27.41290107997617</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02796718827371336</v>
+        <v>0.02796718827369915</v>
       </c>
       <c r="D8">
-        <v>0.09746772356557187</v>
+        <v>0.09746772356546529</v>
       </c>
       <c r="E8">
-        <v>1.447745928973873</v>
+        <v>1.447745928973859</v>
       </c>
       <c r="F8">
         <v>1.849105164395624</v>
       </c>
       <c r="G8">
-        <v>1.630542625237126</v>
+        <v>1.630542625237155</v>
       </c>
       <c r="H8">
         <v>1.439583442630536</v>
       </c>
       <c r="I8">
-        <v>0.9578107382486962</v>
+        <v>0.9578107382487318</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.070055353224092</v>
+        <v>1.070055353224078</v>
       </c>
       <c r="L8">
-        <v>34.91805356850091</v>
+        <v>34.91805356850102</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D9">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E9">
         <v>2.462907196065728</v>
       </c>
       <c r="F9">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G9">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H9">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I9">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L9">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D10">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E10">
         <v>2.462907196065728</v>
       </c>
       <c r="F10">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G10">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H10">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I10">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L10">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D11">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E11">
         <v>2.462907196065728</v>
       </c>
       <c r="F11">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G11">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H11">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I11">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L11">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D12">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E12">
         <v>2.462907196065728</v>
       </c>
       <c r="F12">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G12">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H12">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I12">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L12">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D13">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E13">
         <v>2.462907196065728</v>
       </c>
       <c r="F13">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G13">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H13">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I13">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L13">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D14">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E14">
         <v>2.462907196065728</v>
       </c>
       <c r="F14">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G14">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H14">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I14">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L14">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D15">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E15">
         <v>2.462907196065728</v>
       </c>
       <c r="F15">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G15">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H15">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I15">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L15">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D16">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E16">
         <v>2.462907196065728</v>
       </c>
       <c r="F16">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G16">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H16">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I16">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L16">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D17">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E17">
         <v>2.462907196065728</v>
       </c>
       <c r="F17">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G17">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H17">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I17">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L17">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D18">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E18">
         <v>2.462907196065728</v>
       </c>
       <c r="F18">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G18">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H18">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I18">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L18">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D19">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E19">
         <v>2.462907196065728</v>
       </c>
       <c r="F19">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G19">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H19">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I19">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L19">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D20">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E20">
         <v>2.462907196065728</v>
       </c>
       <c r="F20">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G20">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H20">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I20">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L20">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D21">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E21">
         <v>2.462907196065728</v>
       </c>
       <c r="F21">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G21">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H21">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I21">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L21">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D22">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E22">
         <v>2.462907196065728</v>
       </c>
       <c r="F22">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G22">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H22">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I22">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L22">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D23">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E23">
         <v>2.462907196065728</v>
       </c>
       <c r="F23">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G23">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H23">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I23">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L23">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D24">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E24">
         <v>2.462907196065728</v>
       </c>
       <c r="F24">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G24">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H24">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I24">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L24">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.043717476457239</v>
+        <v>0.04371747645706847</v>
       </c>
       <c r="D25">
-        <v>0.1855515479223442</v>
+        <v>0.1855515479221594</v>
       </c>
       <c r="E25">
         <v>2.462907196065728</v>
       </c>
       <c r="F25">
-        <v>4.424121969846738</v>
+        <v>4.424121969846638</v>
       </c>
       <c r="G25">
-        <v>3.829264170670172</v>
+        <v>3.829264170670072</v>
       </c>
       <c r="H25">
-        <v>3.437481591219523</v>
+        <v>3.437481591219466</v>
       </c>
       <c r="I25">
-        <v>1.7320378445758</v>
+        <v>1.732037844575814</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.856843415201368</v>
+        <v>1.856843415201354</v>
       </c>
       <c r="L25">
-        <v>56.28855198016726</v>
+        <v>56.28855198016709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0297431997589328</v>
+        <v>0.02965104366474947</v>
       </c>
       <c r="D2">
-        <v>0.1059182208505121</v>
+        <v>0.1056220038186879</v>
       </c>
       <c r="E2">
-        <v>1.548929927410342</v>
+        <v>1.548676795419667</v>
       </c>
       <c r="F2">
-        <v>2.0655050307452</v>
+        <v>2.061655420514882</v>
       </c>
       <c r="G2">
-        <v>1.817094859044232</v>
+        <v>0.6498312512802613</v>
       </c>
       <c r="H2">
-        <v>1.607766124461378</v>
+        <v>1.166327236022056</v>
       </c>
       <c r="I2">
-        <v>1.031240717798731</v>
+        <v>1.604731734615768</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.031151879736321</v>
       </c>
       <c r="K2">
-        <v>1.147163312311861</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>37.17911342029771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.147029386101877</v>
+      </c>
+      <c r="M2">
+        <v>37.17390741438373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02478143891084272</v>
+        <v>0.02470850642753675</v>
       </c>
       <c r="D3">
-        <v>0.0830586914455651</v>
+        <v>0.08283946593690672</v>
       </c>
       <c r="E3">
-        <v>1.271322329641976</v>
+        <v>1.271152199712887</v>
       </c>
       <c r="F3">
-        <v>1.498482403082903</v>
+        <v>1.495857764496122</v>
       </c>
       <c r="G3">
-        <v>1.327065686031531</v>
+        <v>0.4752972349391911</v>
       </c>
       <c r="H3">
-        <v>1.166870717882517</v>
+        <v>0.8524554689835924</v>
       </c>
       <c r="I3">
-        <v>0.8318232648763271</v>
+        <v>1.164799101663675</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8318077230591001</v>
       </c>
       <c r="K3">
-        <v>0.9363293812685924</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.91208159205638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.9362648029104079</v>
+      </c>
+      <c r="M3">
+        <v>30.90919627510056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02198109243002477</v>
+        <v>0.02191814512993773</v>
       </c>
       <c r="D4">
-        <v>0.07114549241370582</v>
+        <v>0.07096324464601622</v>
       </c>
       <c r="E4">
-        <v>1.12077225901993</v>
+        <v>1.1206332961887</v>
       </c>
       <c r="F4">
-        <v>1.228215797718349</v>
+        <v>1.226128881586277</v>
       </c>
       <c r="G4">
-        <v>1.091772078961853</v>
+        <v>0.3904093374812021</v>
       </c>
       <c r="H4">
-        <v>0.9564074612977151</v>
+        <v>0.7027995055360492</v>
       </c>
       <c r="I4">
-        <v>0.7263818770940205</v>
+        <v>0.9547592362264297</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7263896341559644</v>
       </c>
       <c r="K4">
-        <v>0.8229418394266474</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>27.43141494626565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.8229010366589193</v>
+      </c>
+      <c r="M4">
+        <v>27.4294191466293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0208834966823801</v>
+        <v>0.02082431217458236</v>
       </c>
       <c r="D5">
-        <v>0.06666113338687296</v>
+        <v>0.06649227265921809</v>
       </c>
       <c r="E5">
-        <v>1.062750957644653</v>
+        <v>1.062622252073282</v>
       </c>
       <c r="F5">
-        <v>1.131676523114848</v>
+        <v>1.12977541716414</v>
       </c>
       <c r="G5">
-        <v>1.007336298214369</v>
+        <v>0.3596961800671608</v>
       </c>
       <c r="H5">
-        <v>0.881155986558106</v>
+        <v>0.6493428732152609</v>
       </c>
       <c r="I5">
-        <v>0.6862572535002727</v>
+        <v>0.879654201894013</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.686271635530197</v>
       </c>
       <c r="K5">
-        <v>0.7794223156439912</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>26.07501765789925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.7793887607006482</v>
+      </c>
+      <c r="M5">
+        <v>26.07330903936094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02070347559089214</v>
+        <v>0.02064490048739742</v>
       </c>
       <c r="D6">
-        <v>0.06593542641660832</v>
+        <v>0.06576870493348252</v>
       </c>
       <c r="E6">
-        <v>1.053283048998111</v>
+        <v>1.05315594049226</v>
       </c>
       <c r="F6">
-        <v>1.116342190941751</v>
+        <v>1.11447031436272</v>
       </c>
       <c r="G6">
-        <v>0.9939016947015347</v>
+        <v>0.3547945286073997</v>
       </c>
       <c r="H6">
-        <v>0.869198595155865</v>
+        <v>0.64085213719531</v>
       </c>
       <c r="I6">
-        <v>0.6797368683605143</v>
+        <v>0.8677198540067721</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6797522208602089</v>
       </c>
       <c r="K6">
-        <v>0.7723303100081864</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>25.85289862266097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.7722978494019443</v>
+      </c>
+      <c r="M6">
+        <v>25.85123418349872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02196613217473242</v>
+        <v>0.02190323671459993</v>
       </c>
       <c r="D7">
-        <v>0.07108367816672967</v>
+        <v>0.07090161689811936</v>
       </c>
       <c r="E7">
-        <v>1.119977922047056</v>
+        <v>1.119839105423836</v>
       </c>
       <c r="F7">
-        <v>1.226864705197102</v>
+        <v>1.224780411293608</v>
       </c>
       <c r="G7">
-        <v>1.090591984817905</v>
+        <v>0.3899811262965187</v>
       </c>
       <c r="H7">
-        <v>0.9553546068464271</v>
+        <v>0.7020513490875686</v>
       </c>
       <c r="I7">
-        <v>0.725830624904269</v>
+        <v>0.9537084478654805</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.725838480810701</v>
       </c>
       <c r="K7">
-        <v>0.8223453625572219</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>27.41290107997617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.8223046655605231</v>
+      </c>
+      <c r="M7">
+        <v>27.41090940798841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02796718827369915</v>
+        <v>0.02788215896543278</v>
       </c>
       <c r="D8">
-        <v>0.09746772356546529</v>
+        <v>0.09720093797336204</v>
       </c>
       <c r="E8">
-        <v>1.447745928973859</v>
+        <v>1.447527883559204</v>
       </c>
       <c r="F8">
-        <v>1.849105164395624</v>
+        <v>1.845739980188071</v>
       </c>
       <c r="G8">
-        <v>1.630542625237155</v>
+        <v>0.5836706084549661</v>
       </c>
       <c r="H8">
-        <v>1.439583442630536</v>
+        <v>1.046565561240044</v>
       </c>
       <c r="I8">
-        <v>0.9578107382487318</v>
+        <v>1.436929535431418</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9577540418675525</v>
       </c>
       <c r="K8">
-        <v>1.070055353224078</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>34.91805356850102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.069951342310546</v>
+      </c>
+      <c r="M8">
+        <v>34.91381179253631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D9">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E9">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F9">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G9">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H9">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I9">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K9">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M9">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D10">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E10">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F10">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G10">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H10">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I10">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K10">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M10">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D11">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E11">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F11">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G11">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H11">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I11">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K11">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M11">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D12">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E12">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F12">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G12">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H12">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I12">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K12">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M12">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D13">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E13">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F13">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G13">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H13">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I13">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K13">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M13">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D14">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E14">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F14">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G14">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H14">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I14">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K14">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M14">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D15">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E15">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F15">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G15">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H15">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I15">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K15">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M15">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D16">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E16">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F16">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G16">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H16">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I16">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K16">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M16">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D17">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E17">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F17">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G17">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H17">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I17">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K17">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M17">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D18">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E18">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F18">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G18">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H18">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I18">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K18">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M18">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D19">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E19">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F19">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G19">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H19">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I19">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K19">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M19">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D20">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E20">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F20">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G20">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H20">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I20">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K20">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M20">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D21">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E21">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F21">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G21">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H21">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I21">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K21">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M21">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D22">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E22">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F22">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G22">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H22">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I22">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K22">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M22">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D23">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E23">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F23">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G23">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H23">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I23">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K23">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M23">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D24">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E24">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F24">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G24">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H24">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I24">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K24">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>56.28855198016709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M24">
+        <v>56.26134442508754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04371747645706847</v>
+        <v>0.0435535165155656</v>
       </c>
       <c r="D25">
-        <v>0.1855515479221594</v>
+        <v>0.184890172093688</v>
       </c>
       <c r="E25">
-        <v>2.462907196065728</v>
+        <v>2.461642281640763</v>
       </c>
       <c r="F25">
-        <v>4.424121969846638</v>
+        <v>4.412581876771085</v>
       </c>
       <c r="G25">
-        <v>3.829264170670072</v>
+        <v>1.351330276708211</v>
       </c>
       <c r="H25">
-        <v>3.437481591219466</v>
+        <v>2.468269849510492</v>
       </c>
       <c r="I25">
-        <v>1.732037844575814</v>
+        <v>3.428436383545701</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.730991218549683</v>
       </c>
       <c r="K25">
-        <v>1.856843415201354</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>56.28855198016709</v>
+        <v>1.855838700645037</v>
+      </c>
+      <c r="M25">
+        <v>56.26134442508754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02965104366474947</v>
+        <v>0.2348754959123056</v>
       </c>
       <c r="D2">
-        <v>0.1056220038186879</v>
+        <v>0.03099473314486545</v>
       </c>
       <c r="E2">
-        <v>1.548676795419667</v>
+        <v>0.05949578071804495</v>
       </c>
       <c r="F2">
-        <v>2.061655420514882</v>
+        <v>5.941886989431225</v>
       </c>
       <c r="G2">
-        <v>0.6498312512802613</v>
+        <v>0.0007774950413668048</v>
       </c>
       <c r="H2">
-        <v>1.166327236022056</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.604731734615768</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.031151879736321</v>
+        <v>0.2536258223891679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7.632598548519923</v>
       </c>
       <c r="L2">
-        <v>1.147029386101877</v>
+        <v>0.03260823574248128</v>
       </c>
       <c r="M2">
-        <v>37.17390741438373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.604366542972826</v>
+      </c>
+      <c r="O2">
+        <v>4.60909699044106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02470850642753675</v>
+        <v>0.2133154589529909</v>
       </c>
       <c r="D3">
-        <v>0.08283946593690672</v>
+        <v>0.02509157619149605</v>
       </c>
       <c r="E3">
-        <v>1.271152199712887</v>
+        <v>0.05609544297836599</v>
       </c>
       <c r="F3">
-        <v>1.495857764496122</v>
+        <v>5.302030251757827</v>
       </c>
       <c r="G3">
-        <v>0.4752972349391911</v>
+        <v>0.0007975577938437332</v>
       </c>
       <c r="H3">
-        <v>0.8524554689835924</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.164799101663675</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.8318077230591001</v>
+        <v>0.2320443080241574</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.612952478760491</v>
       </c>
       <c r="L3">
-        <v>0.9362648029104079</v>
+        <v>0.03221581439764165</v>
       </c>
       <c r="M3">
-        <v>30.90919627510056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.507049630736475</v>
+      </c>
+      <c r="O3">
+        <v>4.100354612103729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02191814512993773</v>
+        <v>0.2008605232861953</v>
       </c>
       <c r="D4">
-        <v>0.07096324464601622</v>
+        <v>0.02178989264085018</v>
       </c>
       <c r="E4">
-        <v>1.1206332961887</v>
+        <v>0.0541474350813278</v>
       </c>
       <c r="F4">
-        <v>1.226128881586277</v>
+        <v>4.938881110686566</v>
       </c>
       <c r="G4">
-        <v>0.3904093374812021</v>
+        <v>0.0008099389123955872</v>
       </c>
       <c r="H4">
-        <v>0.7027995055360492</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9547592362264297</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7263896341559644</v>
+        <v>0.2198611304119424</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.005786937895351</v>
       </c>
       <c r="L4">
-        <v>0.8229010366589193</v>
+        <v>0.03200469761122449</v>
       </c>
       <c r="M4">
-        <v>27.4294191466293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.449084688348549</v>
+      </c>
+      <c r="O4">
+        <v>3.811870644787149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02082431217458236</v>
+        <v>0.195952698766007</v>
       </c>
       <c r="D5">
-        <v>0.06649227265921809</v>
+        <v>0.02051040961255168</v>
       </c>
       <c r="E5">
-        <v>1.062622252073282</v>
+        <v>0.05338434740665399</v>
       </c>
       <c r="F5">
-        <v>1.12977541716414</v>
+        <v>4.797204852028841</v>
       </c>
       <c r="G5">
-        <v>0.3596961800671608</v>
+        <v>0.0008150140450300105</v>
       </c>
       <c r="H5">
-        <v>0.6493428732152609</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.879654201894013</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.686271635530197</v>
+        <v>0.2151254349528813</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5.762243860532465</v>
       </c>
       <c r="L5">
-        <v>0.7793887607006482</v>
+        <v>0.03192578395081291</v>
       </c>
       <c r="M5">
-        <v>26.07330903936094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.425877533295377</v>
+      </c>
+      <c r="O5">
+        <v>3.699374568681293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02064490048739742</v>
+        <v>0.1951471275336445</v>
       </c>
       <c r="D6">
-        <v>0.06576870493348252</v>
+        <v>0.0203015460091045</v>
       </c>
       <c r="E6">
-        <v>1.05315594049226</v>
+        <v>0.05325937960130034</v>
       </c>
       <c r="F6">
-        <v>1.11447031436272</v>
+        <v>4.774030575771491</v>
       </c>
       <c r="G6">
-        <v>0.3547945286073997</v>
+        <v>0.0008158589256370696</v>
       </c>
       <c r="H6">
-        <v>0.64085213719531</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8677198540067721</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6797522208602089</v>
+        <v>0.2143518885889932</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.722015652108325</v>
       </c>
       <c r="L6">
-        <v>0.7722978494019443</v>
+        <v>0.03191310046530127</v>
       </c>
       <c r="M6">
-        <v>25.85123418349872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.422048058389123</v>
+      </c>
+      <c r="O6">
+        <v>3.680976103738345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02190323671459993</v>
+        <v>0.2007936906367291</v>
       </c>
       <c r="D7">
-        <v>0.07090161689811936</v>
+        <v>0.02177238796977221</v>
       </c>
       <c r="E7">
-        <v>1.119839105423836</v>
+        <v>0.05413702460812075</v>
       </c>
       <c r="F7">
-        <v>1.224780411293608</v>
+        <v>4.936946254080027</v>
       </c>
       <c r="G7">
-        <v>0.3899811262965187</v>
+        <v>0.0008100072202557758</v>
       </c>
       <c r="H7">
-        <v>0.7020513490875686</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9537084478654805</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.725838480810701</v>
+        <v>0.2197963827940086</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.002487750302663</v>
       </c>
       <c r="L7">
-        <v>0.8223046655605231</v>
+        <v>0.0320036049866097</v>
       </c>
       <c r="M7">
-        <v>27.41090940798841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.448770075728291</v>
+      </c>
+      <c r="O7">
+        <v>3.810334104690526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02788215896543278</v>
+        <v>0.2272596877052422</v>
       </c>
       <c r="D8">
-        <v>0.09720093797336204</v>
+        <v>0.02888217082007571</v>
       </c>
       <c r="E8">
-        <v>1.447527883559204</v>
+        <v>0.05829139681129547</v>
       </c>
       <c r="F8">
-        <v>1.845739980188071</v>
+        <v>5.714321785603516</v>
       </c>
       <c r="G8">
-        <v>0.5836706084549661</v>
+        <v>0.0007844089910823067</v>
       </c>
       <c r="H8">
-        <v>1.046565561240044</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.436929535431418</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.9577540418675525</v>
+        <v>0.2459366317480942</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.276522835275784</v>
       </c>
       <c r="L8">
-        <v>1.069951342310546</v>
+        <v>0.03246648168436117</v>
       </c>
       <c r="M8">
-        <v>34.91381179253631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.570417538448652</v>
+      </c>
+      <c r="O8">
+        <v>4.428099232028444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0435535165155656</v>
+        <v>0.287067629979191</v>
       </c>
       <c r="D9">
-        <v>0.184890172093688</v>
+        <v>0.04628046507033901</v>
       </c>
       <c r="E9">
-        <v>2.461642281640763</v>
+        <v>0.06780346400452331</v>
       </c>
       <c r="F9">
-        <v>4.412581876771085</v>
+        <v>7.542256175699862</v>
       </c>
       <c r="G9">
-        <v>1.351330276708211</v>
+        <v>0.0007338956318811322</v>
       </c>
       <c r="H9">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1.730991218549683</v>
+        <v>0.3079683630162435</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.975622604695218</v>
       </c>
       <c r="L9">
-        <v>1.855838700645037</v>
+        <v>0.03363340945878512</v>
       </c>
       <c r="M9">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.825077703237582</v>
+      </c>
+      <c r="O9">
+        <v>5.883836186085318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0435535165155656</v>
+        <v>0.339103309762379</v>
       </c>
       <c r="D10">
-        <v>0.184890172093688</v>
+        <v>0.06292987386137128</v>
       </c>
       <c r="E10">
-        <v>2.461642281640763</v>
+        <v>0.076117997250428</v>
       </c>
       <c r="F10">
-        <v>4.412581876771085</v>
+        <v>9.201257866829195</v>
       </c>
       <c r="G10">
-        <v>1.351330276708211</v>
+        <v>0.0006950244610470736</v>
       </c>
       <c r="H10">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.730991218549683</v>
+        <v>0.3645637856589303</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.17950324024409</v>
       </c>
       <c r="L10">
-        <v>1.855838700645037</v>
+        <v>0.0346926229820852</v>
       </c>
       <c r="M10">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2.02532883453469</v>
+      </c>
+      <c r="O10">
+        <v>7.208434628868446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0435535165155656</v>
+        <v>0.3657006646374725</v>
       </c>
       <c r="D11">
-        <v>0.184890172093688</v>
+        <v>0.07198816590921808</v>
       </c>
       <c r="E11">
-        <v>2.461642281640763</v>
+        <v>0.08036396520812161</v>
       </c>
       <c r="F11">
-        <v>4.412581876771085</v>
+        <v>10.07153073491531</v>
       </c>
       <c r="G11">
-        <v>1.351330276708211</v>
+        <v>0.0006763992133076025</v>
       </c>
       <c r="H11">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.730991218549683</v>
+        <v>0.3943019087364092</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.26537548324316</v>
       </c>
       <c r="L11">
-        <v>1.855838700645037</v>
+        <v>0.03523396000979773</v>
       </c>
       <c r="M11">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2.120292942948083</v>
+      </c>
+      <c r="O11">
+        <v>7.904468109689248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0435535165155656</v>
+        <v>0.3763488152322054</v>
       </c>
       <c r="D12">
-        <v>0.184890172093688</v>
+        <v>0.07571968716536048</v>
       </c>
       <c r="E12">
-        <v>2.461642281640763</v>
+        <v>0.08206181703811666</v>
       </c>
       <c r="F12">
-        <v>4.412581876771085</v>
+        <v>10.42398841536252</v>
       </c>
       <c r="G12">
-        <v>1.351330276708211</v>
+        <v>0.0006691358901559234</v>
       </c>
       <c r="H12">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.730991218549683</v>
+        <v>0.40635145009837</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.69327800524445</v>
       </c>
       <c r="L12">
-        <v>1.855838700645037</v>
+        <v>0.03544958072603421</v>
       </c>
       <c r="M12">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2.156925250578382</v>
+      </c>
+      <c r="O12">
+        <v>8.186579771153134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0435535165155656</v>
+        <v>0.3740266172843576</v>
       </c>
       <c r="D13">
-        <v>0.184890172093688</v>
+        <v>0.07490074894164422</v>
       </c>
       <c r="E13">
-        <v>2.461642281640763</v>
+        <v>0.08169165812991608</v>
       </c>
       <c r="F13">
-        <v>4.412581876771085</v>
+        <v>10.34692817305552</v>
       </c>
       <c r="G13">
-        <v>1.351330276708211</v>
+        <v>0.0006707111214074676</v>
       </c>
       <c r="H13">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.730991218549683</v>
+        <v>0.4037167490113376</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.60027808637315</v>
       </c>
       <c r="L13">
-        <v>1.855838700645037</v>
+        <v>0.03540262646713899</v>
       </c>
       <c r="M13">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2.149003720222936</v>
+      </c>
+      <c r="O13">
+        <v>8.124889086870724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0435535165155656</v>
+        <v>0.3665639870472432</v>
       </c>
       <c r="D14">
-        <v>0.184890172093688</v>
+        <v>0.07228845971797426</v>
       </c>
       <c r="E14">
-        <v>2.461642281640763</v>
+        <v>0.0805016715707545</v>
       </c>
       <c r="F14">
-        <v>4.412581876771085</v>
+        <v>10.10002175197334</v>
       </c>
       <c r="G14">
-        <v>1.351330276708211</v>
+        <v>0.0006758064286943424</v>
       </c>
       <c r="H14">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.730991218549683</v>
+        <v>0.3952758335889683</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.30020921417668</v>
       </c>
       <c r="L14">
-        <v>1.855838700645037</v>
+        <v>0.03525147087554359</v>
       </c>
       <c r="M14">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2.123292454305442</v>
+      </c>
+      <c r="O14">
+        <v>7.927268027739473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0435535165155656</v>
+        <v>0.3620738215663835</v>
       </c>
       <c r="D15">
-        <v>0.184890172093688</v>
+        <v>0.07073094524742629</v>
       </c>
       <c r="E15">
-        <v>2.461642281640763</v>
+        <v>0.07978536789983082</v>
       </c>
       <c r="F15">
-        <v>4.412581876771085</v>
+        <v>9.952004388167381</v>
       </c>
       <c r="G15">
-        <v>1.351330276708211</v>
+        <v>0.0006788972349420142</v>
       </c>
       <c r="H15">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.730991218549683</v>
+        <v>0.3902162858890392</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.11876241531809</v>
       </c>
       <c r="L15">
-        <v>1.855838700645037</v>
+        <v>0.03516034567782356</v>
       </c>
       <c r="M15">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2.107635051196809</v>
+      </c>
+      <c r="O15">
+        <v>7.808826215717943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0435535165155656</v>
+        <v>0.3374357546558429</v>
       </c>
       <c r="D16">
-        <v>0.184890172093688</v>
+        <v>0.06237437035504456</v>
       </c>
       <c r="E16">
-        <v>2.461642281640763</v>
+        <v>0.0758516084819334</v>
       </c>
       <c r="F16">
-        <v>4.412581876771085</v>
+        <v>9.147184019384468</v>
       </c>
       <c r="G16">
-        <v>1.351330276708211</v>
+        <v>0.0006962170468012246</v>
       </c>
       <c r="H16">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.730991218549683</v>
+        <v>0.3627168500745057</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.11057239387512</v>
       </c>
       <c r="L16">
-        <v>1.855838700645037</v>
+        <v>0.03465859953216821</v>
       </c>
       <c r="M16">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2.019209612541744</v>
+      </c>
+      <c r="O16">
+        <v>7.165213091794982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0435535165155656</v>
+        <v>0.3231612800250048</v>
       </c>
       <c r="D17">
-        <v>0.184890172093688</v>
+        <v>0.05767884529284828</v>
       </c>
       <c r="E17">
-        <v>2.461642281640763</v>
+        <v>0.07357074956571097</v>
       </c>
       <c r="F17">
-        <v>4.412581876771085</v>
+        <v>8.686715469845808</v>
       </c>
       <c r="G17">
-        <v>1.351330276708211</v>
+        <v>0.0007065572166248201</v>
       </c>
       <c r="H17">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.730991218549683</v>
+        <v>0.3469941210732088</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.5161704867993</v>
       </c>
       <c r="L17">
-        <v>1.855838700645037</v>
+        <v>0.0343672446819383</v>
       </c>
       <c r="M17">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.966025938172891</v>
+      </c>
+      <c r="O17">
+        <v>6.797284307738892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0435535165155656</v>
+        <v>0.3152141992196107</v>
       </c>
       <c r="D18">
-        <v>0.184890172093688</v>
+        <v>0.05511087443434093</v>
       </c>
       <c r="E18">
-        <v>2.461642281640763</v>
+        <v>0.0723006733853282</v>
       </c>
       <c r="F18">
-        <v>4.412581876771085</v>
+        <v>8.432252106530314</v>
       </c>
       <c r="G18">
-        <v>1.351330276708211</v>
+        <v>0.0007124217639994597</v>
       </c>
       <c r="H18">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.730991218549683</v>
+        <v>0.3383097938838517</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.18175712202523</v>
       </c>
       <c r="L18">
-        <v>1.855838700645037</v>
+        <v>0.03420510276425048</v>
       </c>
       <c r="M18">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.935791767279539</v>
+      </c>
+      <c r="O18">
+        <v>6.594058494705052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0435535165155656</v>
+        <v>0.3125649626126119</v>
       </c>
       <c r="D19">
-        <v>0.184890172093688</v>
+        <v>0.05426214277129304</v>
       </c>
       <c r="E19">
-        <v>2.461642281640763</v>
+        <v>0.07187727325953475</v>
       </c>
       <c r="F19">
-        <v>4.412581876771085</v>
+        <v>8.34772989807675</v>
       </c>
       <c r="G19">
-        <v>1.351330276708211</v>
+        <v>0.0007143949452654277</v>
       </c>
       <c r="H19">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.730991218549683</v>
+        <v>0.3354260032325271</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.06970155232389</v>
       </c>
       <c r="L19">
-        <v>1.855838700645037</v>
+        <v>0.03415108878272122</v>
       </c>
       <c r="M19">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.925613115527113</v>
+      </c>
+      <c r="O19">
+        <v>6.526571007922229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0435535165155656</v>
+        <v>0.3246526663918132</v>
       </c>
       <c r="D20">
-        <v>0.184890172093688</v>
+        <v>0.05816443995860965</v>
       </c>
       <c r="E20">
-        <v>2.461642281640763</v>
+        <v>0.07380908616372395</v>
       </c>
       <c r="F20">
-        <v>4.412581876771085</v>
+        <v>8.734621397286958</v>
       </c>
       <c r="G20">
-        <v>1.351330276708211</v>
+        <v>0.0007054655004629436</v>
       </c>
       <c r="H20">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.730991218549683</v>
+        <v>0.348629425268939</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.57864468693779</v>
       </c>
       <c r="L20">
-        <v>1.855838700645037</v>
+        <v>0.03439768491780271</v>
       </c>
       <c r="M20">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.97164989616067</v>
+      </c>
+      <c r="O20">
+        <v>6.835552014425161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0435535165155656</v>
+        <v>0.3687386907020027</v>
       </c>
       <c r="D21">
-        <v>0.184890172093688</v>
+        <v>0.07304665345560579</v>
       </c>
       <c r="E21">
-        <v>2.461642281640763</v>
+        <v>0.0808485158069594</v>
       </c>
       <c r="F21">
-        <v>4.412581876771085</v>
+        <v>10.17185731942237</v>
       </c>
       <c r="G21">
-        <v>1.351330276708211</v>
+        <v>0.0006743162985955889</v>
       </c>
       <c r="H21">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.730991218549683</v>
+        <v>0.3977315144408919</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.3878442469321</v>
       </c>
       <c r="L21">
-        <v>1.855838700645037</v>
+        <v>0.03529555908767534</v>
       </c>
       <c r="M21">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2.130825148600536</v>
+      </c>
+      <c r="O21">
+        <v>7.984758044349491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0435535165155656</v>
+        <v>0.4010473966392851</v>
       </c>
       <c r="D22">
-        <v>0.184890172093688</v>
+        <v>0.08460878692753937</v>
       </c>
       <c r="E22">
-        <v>2.461642281640763</v>
+        <v>0.08599419409253883</v>
       </c>
       <c r="F22">
-        <v>4.412581876771085</v>
+        <v>11.25023113035206</v>
       </c>
       <c r="G22">
-        <v>1.351330276708211</v>
+        <v>0.0006526663035134508</v>
       </c>
       <c r="H22">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.730991218549683</v>
+        <v>0.434607287041274</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.67181724123753</v>
       </c>
       <c r="L22">
-        <v>1.855838700645037</v>
+        <v>0.03594613032558769</v>
       </c>
       <c r="M22">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.238854036693226</v>
+      </c>
+      <c r="O22">
+        <v>8.848399328524891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0435535165155656</v>
+        <v>0.3834101372418957</v>
       </c>
       <c r="D23">
-        <v>0.184890172093688</v>
+        <v>0.07822761683880231</v>
       </c>
       <c r="E23">
-        <v>2.461642281640763</v>
+        <v>0.08318696520095514</v>
       </c>
       <c r="F23">
-        <v>4.412581876771085</v>
+        <v>10.65897558159025</v>
       </c>
       <c r="G23">
-        <v>1.351330276708211</v>
+        <v>0.000664375072513268</v>
       </c>
       <c r="H23">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.730991218549683</v>
+        <v>0.4143864017721199</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.97499954383161</v>
       </c>
       <c r="L23">
-        <v>1.855838700645037</v>
+        <v>0.03559209754169501</v>
       </c>
       <c r="M23">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2.180782153840624</v>
+      </c>
+      <c r="O23">
+        <v>8.374735673301927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0435535165155656</v>
+        <v>0.3239776129067593</v>
       </c>
       <c r="D24">
-        <v>0.184890172093688</v>
+        <v>0.05794449881243224</v>
       </c>
       <c r="E24">
-        <v>2.461642281640763</v>
+        <v>0.0737012073860015</v>
       </c>
       <c r="F24">
-        <v>4.412581876771085</v>
+        <v>8.712931578068151</v>
       </c>
       <c r="G24">
-        <v>1.351330276708211</v>
+        <v>0.00070595930989636</v>
       </c>
       <c r="H24">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.730991218549683</v>
+        <v>0.3478890134383477</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.55037763401631</v>
       </c>
       <c r="L24">
-        <v>1.855838700645037</v>
+        <v>0.03438390632742028</v>
       </c>
       <c r="M24">
-        <v>56.26134442508754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.969106248160756</v>
+      </c>
+      <c r="O24">
+        <v>6.818225674062148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0435535165155656</v>
+        <v>0.2697630023071014</v>
       </c>
       <c r="D25">
-        <v>0.184890172093688</v>
+        <v>0.04105587800223987</v>
       </c>
       <c r="E25">
-        <v>2.461642281640763</v>
+        <v>0.06504200550430284</v>
       </c>
       <c r="F25">
-        <v>4.412581876771085</v>
+        <v>7.004143288229983</v>
       </c>
       <c r="G25">
-        <v>1.351330276708211</v>
+        <v>0.0007477277671871804</v>
       </c>
       <c r="H25">
-        <v>2.468269849510492</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3.428436383545701</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.730991218549683</v>
+        <v>0.2896563255882256</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.215602084232728</v>
       </c>
       <c r="L25">
-        <v>1.855838700645037</v>
+        <v>0.03328625060958856</v>
       </c>
       <c r="M25">
-        <v>56.26134442508754</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.754157684348115</v>
+      </c>
+      <c r="O25">
+        <v>5.454863139529095</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2348754959123056</v>
+        <v>0.2619165391441953</v>
       </c>
       <c r="D2">
-        <v>0.03099473314486545</v>
+        <v>0.07323524745633136</v>
       </c>
       <c r="E2">
-        <v>0.05949578071804495</v>
+        <v>0.07735188938375614</v>
       </c>
       <c r="F2">
-        <v>5.941886989431225</v>
+        <v>0.3747229970884902</v>
       </c>
       <c r="G2">
-        <v>0.0007774950413668048</v>
+        <v>0.2694238168101535</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2451651554613292</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2536258223891679</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.632598548519923</v>
+        <v>3.687620201854031</v>
       </c>
       <c r="L2">
-        <v>0.03260823574248128</v>
+        <v>0.04884399725075284</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.828787450187086</v>
       </c>
       <c r="N2">
-        <v>1.604366542972826</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.60909699044106</v>
+        <v>1.033580923965843</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2133154589529909</v>
+        <v>0.2406903274377328</v>
       </c>
       <c r="D3">
-        <v>0.02509157619149605</v>
+        <v>0.06567597636536249</v>
       </c>
       <c r="E3">
-        <v>0.05609544297836599</v>
+        <v>0.07368361849326632</v>
       </c>
       <c r="F3">
-        <v>5.302030251757827</v>
+        <v>0.3597596683205637</v>
       </c>
       <c r="G3">
-        <v>0.0007975577938437332</v>
+        <v>0.2635481717978578</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2499185314547958</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2320443080241574</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.612952478760491</v>
+        <v>3.214656218309699</v>
       </c>
       <c r="L3">
-        <v>0.03221581439764165</v>
+        <v>0.0489560688051256</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7215715308653472</v>
       </c>
       <c r="N3">
-        <v>1.507049630736475</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.100354612103729</v>
+        <v>1.030639730012041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2008605232861953</v>
+        <v>0.2280381092104733</v>
       </c>
       <c r="D4">
-        <v>0.02178989264085018</v>
+        <v>0.06102772467768602</v>
       </c>
       <c r="E4">
-        <v>0.0541474350813278</v>
+        <v>0.07158407540108414</v>
       </c>
       <c r="F4">
-        <v>4.938881110686566</v>
+        <v>0.3517678238884088</v>
       </c>
       <c r="G4">
-        <v>0.0008099389123955872</v>
+        <v>0.2611060464609025</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2535453774041585</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2198611304119424</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.005786937895351</v>
+        <v>2.924266634834026</v>
       </c>
       <c r="L4">
-        <v>0.03200469761122449</v>
+        <v>0.04915004746268536</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.655882336185762</v>
       </c>
       <c r="N4">
-        <v>1.449084688348549</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3.811870644787149</v>
+        <v>1.032776848225609</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.195952698766007</v>
+        <v>0.2229722076958325</v>
       </c>
       <c r="D5">
-        <v>0.02051040961255168</v>
+        <v>0.05913138413432506</v>
       </c>
       <c r="E5">
-        <v>0.05338434740665399</v>
+        <v>0.0707649827380763</v>
       </c>
       <c r="F5">
-        <v>4.797204852028841</v>
+        <v>0.3487954273612672</v>
       </c>
       <c r="G5">
-        <v>0.0008150140450300105</v>
+        <v>0.2603876216173191</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2551941357610374</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2151254349528813</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.762243860532465</v>
+        <v>2.805899697776255</v>
       </c>
       <c r="L5">
-        <v>0.03192578395081291</v>
+        <v>0.04925925082271121</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6291395480416782</v>
       </c>
       <c r="N5">
-        <v>1.425877533295377</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3.699374568681293</v>
+        <v>1.034589322674307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1951471275336445</v>
+        <v>0.2221362901347845</v>
       </c>
       <c r="D6">
-        <v>0.0203015460091045</v>
+        <v>0.05881635723385159</v>
       </c>
       <c r="E6">
-        <v>0.05325937960130034</v>
+        <v>0.07063112213497291</v>
       </c>
       <c r="F6">
-        <v>4.774030575771491</v>
+        <v>0.3483185743683705</v>
       </c>
       <c r="G6">
-        <v>0.0008158589256370696</v>
+        <v>0.2602845809919643</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2554780191225063</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2143518885889932</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.722015652108325</v>
+        <v>2.786242152664556</v>
       </c>
       <c r="L6">
-        <v>0.03191310046530127</v>
+        <v>0.0492791679400888</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6247002365917567</v>
       </c>
       <c r="N6">
-        <v>1.422048058389123</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.680976103738345</v>
+        <v>1.034945737772205</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2007936906367291</v>
+        <v>0.2279694317726637</v>
       </c>
       <c r="D7">
-        <v>0.02177238796977221</v>
+        <v>0.06100215916733731</v>
       </c>
       <c r="E7">
-        <v>0.05413702460812075</v>
+        <v>0.07157288357561242</v>
       </c>
       <c r="F7">
-        <v>4.936946254080027</v>
+        <v>0.3517266068122282</v>
       </c>
       <c r="G7">
-        <v>0.0008100072202557758</v>
+        <v>0.261095257936617</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2535669310136441</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2197963827940086</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.002487750302663</v>
+        <v>2.922670464759761</v>
       </c>
       <c r="L7">
-        <v>0.0320036049866097</v>
+        <v>0.04915139981426009</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6555215801416168</v>
       </c>
       <c r="N7">
-        <v>1.448770075728291</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3.810334104690526</v>
+        <v>1.032797543677034</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2272596877052422</v>
+        <v>0.2545151467633247</v>
       </c>
       <c r="D8">
-        <v>0.02888217082007571</v>
+        <v>0.07062996093585383</v>
       </c>
       <c r="E8">
-        <v>0.05829139681129547</v>
+        <v>0.07605416401429821</v>
       </c>
       <c r="F8">
-        <v>5.714321785603516</v>
+        <v>0.369305399785155</v>
       </c>
       <c r="G8">
-        <v>0.0007844089910823067</v>
+        <v>0.2671459106222613</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.246652612446475</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2459366317480942</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7.276522835275784</v>
+        <v>3.524518381215216</v>
       </c>
       <c r="L8">
-        <v>0.03246648168436117</v>
+        <v>0.04885584720290126</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7917839829553515</v>
       </c>
       <c r="N8">
-        <v>1.570417538448652</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>4.428099232028444</v>
+        <v>1.031717615807793</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.287067629979191</v>
+        <v>0.309869934016433</v>
       </c>
       <c r="D9">
-        <v>0.04628046507033901</v>
+        <v>0.08947755358707354</v>
       </c>
       <c r="E9">
-        <v>0.06780346400452331</v>
+        <v>0.08614679916860979</v>
       </c>
       <c r="F9">
-        <v>7.542256175699862</v>
+        <v>0.4140428263301814</v>
       </c>
       <c r="G9">
-        <v>0.0007338956318811322</v>
+        <v>0.2890368997285009</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2390610457691693</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3079683630162435</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>9.975622604695218</v>
+        <v>4.70654870115726</v>
       </c>
       <c r="L9">
-        <v>0.03363340945878512</v>
+        <v>0.04933227362442594</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.060595766273828</v>
       </c>
       <c r="N9">
-        <v>1.825077703237582</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>5.883836186085318</v>
+        <v>1.063263356571767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.339103309762379</v>
+        <v>0.3529634016957175</v>
       </c>
       <c r="D10">
-        <v>0.06292987386137128</v>
+        <v>0.103339147945448</v>
       </c>
       <c r="E10">
-        <v>0.076117997250428</v>
+        <v>0.09449453082994097</v>
       </c>
       <c r="F10">
-        <v>9.201257866829195</v>
+        <v>0.4543181391251281</v>
       </c>
       <c r="G10">
-        <v>0.0006950244610470736</v>
+        <v>0.312379513968196</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.237634066653257</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3645637856589303</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>12.17950324024409</v>
+        <v>5.578745549023154</v>
       </c>
       <c r="L10">
-        <v>0.0346926229820852</v>
+        <v>0.0504189236298771</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.25979914489146</v>
       </c>
       <c r="N10">
-        <v>2.02532883453469</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>7.208434628868446</v>
+        <v>1.110469210444961</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3657006646374725</v>
+        <v>0.3731928720407041</v>
       </c>
       <c r="D11">
-        <v>0.07198816590921808</v>
+        <v>0.109656635139757</v>
       </c>
       <c r="E11">
-        <v>0.08036396520812161</v>
+        <v>0.09852739427534729</v>
       </c>
       <c r="F11">
-        <v>10.07153073491531</v>
+        <v>0.4745222676115404</v>
       </c>
       <c r="G11">
-        <v>0.0006763992133076025</v>
+        <v>0.3248485877903704</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.238008483379474</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3943019087364092</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>13.26537548324316</v>
+        <v>5.976997149935755</v>
       </c>
       <c r="L11">
-        <v>0.03523396000979773</v>
+        <v>0.05109538859222695</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.350970370371243</v>
       </c>
       <c r="N11">
-        <v>2.120292942948083</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>7.904468109689248</v>
+        <v>1.137998591425117</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3763488152322054</v>
+        <v>0.3809520705283092</v>
       </c>
       <c r="D12">
-        <v>0.07571968716536048</v>
+        <v>0.1120513335646365</v>
       </c>
       <c r="E12">
-        <v>0.08206181703811666</v>
+        <v>0.1000913239835697</v>
       </c>
       <c r="F12">
-        <v>10.42398841536252</v>
+        <v>0.4824683342750475</v>
       </c>
       <c r="G12">
-        <v>0.0006691358901559234</v>
+        <v>0.3298610345876654</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2383084989200768</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.40635145009837</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>13.69327800524445</v>
+        <v>6.128075607655319</v>
       </c>
       <c r="L12">
-        <v>0.03544958072603421</v>
+        <v>0.05137973928859552</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.385589728153604</v>
       </c>
       <c r="N12">
-        <v>2.156925250578382</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>8.186579771153134</v>
+        <v>1.149369389039407</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3740266172843576</v>
+        <v>0.37927645128579</v>
       </c>
       <c r="D13">
-        <v>0.07490074894164422</v>
+        <v>0.1115354735685798</v>
       </c>
       <c r="E13">
-        <v>0.08169165812991608</v>
+        <v>0.09975281955546933</v>
       </c>
       <c r="F13">
-        <v>10.34692817305552</v>
+        <v>0.4807434685860628</v>
       </c>
       <c r="G13">
-        <v>0.0006707111214074676</v>
+        <v>0.3287681752799472</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2382366630795048</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4037167490113376</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>13.60027808637315</v>
+        <v>6.095525247510636</v>
       </c>
       <c r="L13">
-        <v>0.03540262646713899</v>
+        <v>0.05131721221955843</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.37812935649751</v>
       </c>
       <c r="N13">
-        <v>2.149003720222936</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>8.124889086870724</v>
+        <v>1.146877151102757</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3665639870472432</v>
+        <v>0.3738291949238715</v>
       </c>
       <c r="D14">
-        <v>0.07228845971797426</v>
+        <v>0.1098535959727087</v>
       </c>
       <c r="E14">
-        <v>0.0805016715707545</v>
+        <v>0.09865530527968502</v>
       </c>
       <c r="F14">
-        <v>10.10002175197334</v>
+        <v>0.4751699324579235</v>
       </c>
       <c r="G14">
-        <v>0.0006758064286943424</v>
+        <v>0.3252549917909278</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2380299284290857</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3952758335889683</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>13.30020921417668</v>
+        <v>5.989420734153953</v>
       </c>
       <c r="L14">
-        <v>0.03525147087554359</v>
+        <v>0.0511182053979411</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.353816533684395</v>
       </c>
       <c r="N14">
-        <v>2.123292454305442</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>7.927268027739473</v>
+        <v>1.138914662997649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3620738215663835</v>
+        <v>0.3705057211746237</v>
       </c>
       <c r="D15">
-        <v>0.07073094524742629</v>
+        <v>0.1088237324547521</v>
       </c>
       <c r="E15">
-        <v>0.07978536789983082</v>
+        <v>0.09798792508904697</v>
       </c>
       <c r="F15">
-        <v>9.952004388167381</v>
+        <v>0.4717951814088082</v>
       </c>
       <c r="G15">
-        <v>0.0006788972349420142</v>
+        <v>0.3231416814127215</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2379242458071786</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3902162858890392</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>13.11876241531809</v>
+        <v>5.924465449770878</v>
       </c>
       <c r="L15">
-        <v>0.03516034567782356</v>
+        <v>0.05100004067877606</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.338937048939769</v>
       </c>
       <c r="N15">
-        <v>2.107635051196809</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>7.808826215717943</v>
+        <v>1.134162938253752</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3374357546558429</v>
+        <v>0.3516546861444851</v>
       </c>
       <c r="D16">
-        <v>0.06237437035504456</v>
+        <v>0.1029265815553373</v>
       </c>
       <c r="E16">
-        <v>0.0758516084819334</v>
+        <v>0.09423595579250943</v>
       </c>
       <c r="F16">
-        <v>9.147184019384468</v>
+        <v>0.4530376883301486</v>
       </c>
       <c r="G16">
-        <v>0.0006962170468012246</v>
+        <v>0.3116039270139339</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.237631120035104</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3627168500745057</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>12.11057239387512</v>
+        <v>5.55275340476544</v>
       </c>
       <c r="L16">
-        <v>0.03465859953216821</v>
+        <v>0.05037854753294724</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.253853292920127</v>
       </c>
       <c r="N16">
-        <v>2.019209612541744</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>7.165213091794982</v>
+        <v>1.108798257532698</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3231612800250048</v>
+        <v>0.3402565319104554</v>
       </c>
       <c r="D17">
-        <v>0.05767884529284828</v>
+        <v>0.09931237275996807</v>
       </c>
       <c r="E17">
-        <v>0.07357074956571097</v>
+        <v>0.09199655429072351</v>
       </c>
       <c r="F17">
-        <v>8.686715469845808</v>
+        <v>0.4420296399774557</v>
       </c>
       <c r="G17">
-        <v>0.0007065572166248201</v>
+        <v>0.3050167603765317</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2377210613291822</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3469941210732088</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>11.5161704867993</v>
+        <v>5.325138588727327</v>
       </c>
       <c r="L17">
-        <v>0.0343672446819383</v>
+        <v>0.05004530730535706</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.201809220113816</v>
       </c>
       <c r="N17">
-        <v>1.966025938172891</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>6.797284307738892</v>
+        <v>1.094840584640053</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3152141992196107</v>
+        <v>0.333758982384893</v>
       </c>
       <c r="D18">
-        <v>0.05511087443434093</v>
+        <v>0.09723463802848187</v>
       </c>
       <c r="E18">
-        <v>0.0723006733853282</v>
+        <v>0.09073048360417246</v>
       </c>
       <c r="F18">
-        <v>8.432252106530314</v>
+        <v>0.4358737430836683</v>
       </c>
       <c r="G18">
-        <v>0.0007124217639994597</v>
+        <v>0.3014005898066969</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2378684275506942</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3383097938838517</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>11.18175712202523</v>
+        <v>5.194356724272211</v>
       </c>
       <c r="L18">
-        <v>0.03420510276425048</v>
+        <v>0.04987065253460443</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.171925870429547</v>
       </c>
       <c r="N18">
-        <v>1.935791767279539</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>6.594058494705052</v>
+        <v>1.08737762236396</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3125649626126119</v>
+        <v>0.3315687931396951</v>
       </c>
       <c r="D19">
-        <v>0.05426214277129304</v>
+        <v>0.09653131462754772</v>
       </c>
       <c r="E19">
-        <v>0.07187727325953475</v>
+        <v>0.09030550242617608</v>
       </c>
       <c r="F19">
-        <v>8.34772989807675</v>
+        <v>0.4338189114762798</v>
       </c>
       <c r="G19">
-        <v>0.0007143949452654277</v>
+        <v>0.3002051393019514</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2379344250317175</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3354260032325271</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>11.06970155232389</v>
+        <v>5.150097995813155</v>
       </c>
       <c r="L19">
-        <v>0.03415108878272122</v>
+        <v>0.04981438152309892</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.161816198217878</v>
       </c>
       <c r="N19">
-        <v>1.925613115527113</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>6.526571007922229</v>
+        <v>1.084945646670917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3246526663918132</v>
+        <v>0.3414637829863807</v>
       </c>
       <c r="D20">
-        <v>0.05816443995860965</v>
+        <v>0.09969699654034514</v>
       </c>
       <c r="E20">
-        <v>0.07380908616372395</v>
+        <v>0.09223264774754725</v>
       </c>
       <c r="F20">
-        <v>8.734621397286958</v>
+        <v>0.4431831156215864</v>
       </c>
       <c r="G20">
-        <v>0.0007054655004629436</v>
+        <v>0.3056999403010252</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2377015116941834</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.348629425268939</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>11.57864468693779</v>
+        <v>5.349354094053865</v>
       </c>
       <c r="L20">
-        <v>0.03439768491780271</v>
+        <v>0.05007900619158434</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.207344012577153</v>
       </c>
       <c r="N20">
-        <v>1.97164989616067</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>6.835552014425161</v>
+        <v>1.09626738689937</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3687386907020027</v>
+        <v>0.3754264338176938</v>
       </c>
       <c r="D21">
-        <v>0.07304665345560579</v>
+        <v>0.110347533008806</v>
       </c>
       <c r="E21">
-        <v>0.0808485158069594</v>
+        <v>0.09897664953805929</v>
       </c>
       <c r="F21">
-        <v>10.17185731942237</v>
+        <v>0.4767987994998819</v>
       </c>
       <c r="G21">
-        <v>0.0006743162985955889</v>
+        <v>0.3262788049291316</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2380862649138322</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3977315144408919</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>13.3878442469321</v>
+        <v>6.02057842783563</v>
       </c>
       <c r="L21">
-        <v>0.03529555908767534</v>
+        <v>0.05117587685848335</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.360955098013036</v>
       </c>
       <c r="N21">
-        <v>2.130825148600536</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>7.984758044349491</v>
+        <v>1.141227136299335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4010473966392851</v>
+        <v>0.3982030218260206</v>
       </c>
       <c r="D22">
-        <v>0.08460878692753937</v>
+        <v>0.1173226562770395</v>
       </c>
       <c r="E22">
-        <v>0.08599419409253883</v>
+        <v>0.1036000908077952</v>
       </c>
       <c r="F22">
-        <v>11.25023113035206</v>
+        <v>0.500501927199096</v>
       </c>
       <c r="G22">
-        <v>0.0006526663035134508</v>
+        <v>0.3414353387796325</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2392657528513524</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.434607287041274</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>14.67181724123753</v>
+        <v>6.46086085246634</v>
       </c>
       <c r="L22">
-        <v>0.03594613032558769</v>
+        <v>0.05205808317040805</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.461909386010319</v>
       </c>
       <c r="N22">
-        <v>2.238854036693226</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>8.848399328524891</v>
+        <v>1.176164105826786</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3834101372418957</v>
+        <v>0.3859906052680344</v>
       </c>
       <c r="D23">
-        <v>0.07822761683880231</v>
+        <v>0.1135983349174126</v>
       </c>
       <c r="E23">
-        <v>0.08318696520095514</v>
+        <v>0.1011117025571018</v>
       </c>
       <c r="F23">
-        <v>10.65897558159025</v>
+        <v>0.4876839605567653</v>
       </c>
       <c r="G23">
-        <v>0.000664375072513268</v>
+        <v>0.3331812055744905</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2385474550317213</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4143864017721199</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>13.97499954383161</v>
+        <v>6.225707920030345</v>
       </c>
       <c r="L23">
-        <v>0.03559209754169501</v>
+        <v>0.05157140547776251</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.407971493138362</v>
       </c>
       <c r="N23">
-        <v>2.180782153840624</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>8.374735673301927</v>
+        <v>1.156983111884955</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3239776129067593</v>
+        <v>0.3409178128642054</v>
       </c>
       <c r="D24">
-        <v>0.05794449881243224</v>
+        <v>0.09952310780165163</v>
       </c>
       <c r="E24">
-        <v>0.0737012073860015</v>
+        <v>0.09212584348524544</v>
       </c>
       <c r="F24">
-        <v>8.712931578068151</v>
+        <v>0.4426610929512762</v>
       </c>
       <c r="G24">
-        <v>0.00070595930989636</v>
+        <v>0.305390544244375</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2377100529570981</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3478890134383477</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>11.55037763401631</v>
+        <v>5.338406028643817</v>
       </c>
       <c r="L24">
-        <v>0.03438390632742028</v>
+        <v>0.05006371834271661</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.204841617303032</v>
       </c>
       <c r="N24">
-        <v>1.969106248160756</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>6.818225674062148</v>
+        <v>1.09562058630928</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2697630023071014</v>
+        <v>0.2945008145074723</v>
       </c>
       <c r="D25">
-        <v>0.04105587800223987</v>
+        <v>0.08437891158953903</v>
       </c>
       <c r="E25">
-        <v>0.06504200550430284</v>
+        <v>0.08326315924596273</v>
       </c>
       <c r="F25">
-        <v>7.004143288229983</v>
+        <v>0.4007270737180022</v>
       </c>
       <c r="G25">
-        <v>0.0007477277671871804</v>
+        <v>0.2819275837004227</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2404250384323277</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2896563255882256</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>9.215602084232728</v>
+        <v>4.386323131373445</v>
       </c>
       <c r="L25">
-        <v>0.03328625060958856</v>
+        <v>0.04908112167024115</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.987631468895529</v>
       </c>
       <c r="N25">
-        <v>1.754157684348115</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>5.454863139529095</v>
+        <v>1.050777366783748</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2619165391441953</v>
+        <v>0.3806534858468353</v>
       </c>
       <c r="D2">
-        <v>0.07323524745633136</v>
+        <v>0.03833107441264616</v>
       </c>
       <c r="E2">
-        <v>0.07735188938375614</v>
+        <v>0.1531497260172436</v>
       </c>
       <c r="F2">
-        <v>0.3747229970884902</v>
+        <v>0.7282730210210957</v>
       </c>
       <c r="G2">
-        <v>0.2694238168101535</v>
+        <v>0.5703386385883817</v>
       </c>
       <c r="H2">
-        <v>0.2451651554613292</v>
+        <v>0.7097870972761982</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.687620201854031</v>
+        <v>1.267548457364114</v>
       </c>
       <c r="L2">
-        <v>0.04884399725075284</v>
+        <v>0.1301955329974689</v>
       </c>
       <c r="M2">
-        <v>0.828787450187086</v>
+        <v>0.3998360253669802</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.033580923965843</v>
+        <v>2.536875369564072</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2406903274377328</v>
+        <v>0.3779189058160028</v>
       </c>
       <c r="D3">
-        <v>0.06567597636536249</v>
+        <v>0.03576922354120882</v>
       </c>
       <c r="E3">
-        <v>0.07368361849326632</v>
+        <v>0.1535404883569207</v>
       </c>
       <c r="F3">
-        <v>0.3597596683205637</v>
+        <v>0.7335329962084316</v>
       </c>
       <c r="G3">
-        <v>0.2635481717978578</v>
+        <v>0.5772903253341894</v>
       </c>
       <c r="H3">
-        <v>0.2499185314547958</v>
+        <v>0.7179173613832361</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.214656218309699</v>
+        <v>1.114592041293292</v>
       </c>
       <c r="L3">
-        <v>0.0489560688051256</v>
+        <v>0.1314559830054129</v>
       </c>
       <c r="M3">
-        <v>0.7215715308653472</v>
+        <v>0.3673673862284659</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.030639730012041</v>
+        <v>2.568326242273088</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2280381092104733</v>
+        <v>0.3764499214083088</v>
       </c>
       <c r="D4">
-        <v>0.06102772467768602</v>
+        <v>0.03418704470035294</v>
       </c>
       <c r="E4">
-        <v>0.07158407540108414</v>
+        <v>0.1538674515135199</v>
       </c>
       <c r="F4">
-        <v>0.3517678238884088</v>
+        <v>0.7373460182820253</v>
       </c>
       <c r="G4">
-        <v>0.2611060464609025</v>
+        <v>0.5820885879117554</v>
       </c>
       <c r="H4">
-        <v>0.2535453774041585</v>
+        <v>0.7233174499215238</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.924266634834026</v>
+        <v>1.020366150735498</v>
       </c>
       <c r="L4">
-        <v>0.04915004746268536</v>
+        <v>0.1323030877200075</v>
       </c>
       <c r="M4">
-        <v>0.655882336185762</v>
+        <v>0.3474534518894217</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.032776848225609</v>
+        <v>2.589604354527125</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2229722076958325</v>
+        <v>0.3759041718964227</v>
       </c>
       <c r="D5">
-        <v>0.05913138413432506</v>
+        <v>0.0335400260097316</v>
       </c>
       <c r="E5">
-        <v>0.0707649827380763</v>
+        <v>0.1540225798112367</v>
       </c>
       <c r="F5">
-        <v>0.3487954273612672</v>
+        <v>0.7390463430446914</v>
       </c>
       <c r="G5">
-        <v>0.2603876216173191</v>
+        <v>0.5841768568123697</v>
       </c>
       <c r="H5">
-        <v>0.2551941357610374</v>
+        <v>0.7256205970893035</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.805899697776255</v>
+        <v>0.9818930059653042</v>
       </c>
       <c r="L5">
-        <v>0.04925925082271121</v>
+        <v>0.1326666856159981</v>
       </c>
       <c r="M5">
-        <v>0.6291395480416782</v>
+        <v>0.339344405732021</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.034589322674307</v>
+        <v>2.598769254270039</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2221362901347845</v>
+        <v>0.3758167455932835</v>
       </c>
       <c r="D6">
-        <v>0.05881635723385159</v>
+        <v>0.0334324533555872</v>
       </c>
       <c r="E6">
-        <v>0.07063112213497291</v>
+        <v>0.1540496608241142</v>
       </c>
       <c r="F6">
-        <v>0.3483185743683705</v>
+        <v>0.7393375220538587</v>
       </c>
       <c r="G6">
-        <v>0.2602845809919643</v>
+        <v>0.584531632305108</v>
       </c>
       <c r="H6">
-        <v>0.2554780191225063</v>
+        <v>0.7260092263777054</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.786242152664556</v>
+        <v>0.9755000978059059</v>
       </c>
       <c r="L6">
-        <v>0.0492791679400888</v>
+        <v>0.1327281716382416</v>
       </c>
       <c r="M6">
-        <v>0.6247002365917567</v>
+        <v>0.3379982854072878</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.034945737772205</v>
+        <v>2.600320886700487</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2279694317726637</v>
+        <v>0.3764423470867371</v>
       </c>
       <c r="D7">
-        <v>0.06100215916733731</v>
+        <v>0.03417832790499631</v>
       </c>
       <c r="E7">
-        <v>0.07157288357561242</v>
+        <v>0.153869454999672</v>
       </c>
       <c r="F7">
-        <v>0.3517266068122282</v>
+        <v>0.7373683566115332</v>
       </c>
       <c r="G7">
-        <v>0.261095257936617</v>
+        <v>0.5821162131878239</v>
       </c>
       <c r="H7">
-        <v>0.2535669310136441</v>
+        <v>0.7233480957410308</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.922670464759761</v>
+        <v>1.01984758994962</v>
       </c>
       <c r="L7">
-        <v>0.04915139981426009</v>
+        <v>0.132307916853339</v>
       </c>
       <c r="M7">
-        <v>0.6555215801416168</v>
+        <v>0.3473440652848367</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.032797543677034</v>
+        <v>2.589725956816253</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2545151467633247</v>
+        <v>0.3796670345671487</v>
       </c>
       <c r="D8">
-        <v>0.07062996093585383</v>
+        <v>0.03744968124996717</v>
       </c>
       <c r="E8">
-        <v>0.07605416401429821</v>
+        <v>0.153266398470258</v>
       </c>
       <c r="F8">
-        <v>0.369305399785155</v>
+        <v>0.7299654554340478</v>
       </c>
       <c r="G8">
-        <v>0.2671459106222613</v>
+        <v>0.5726254138679252</v>
       </c>
       <c r="H8">
-        <v>0.246652612446475</v>
+        <v>0.7125056893517652</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.524518381215216</v>
+        <v>1.21487495708277</v>
       </c>
       <c r="L8">
-        <v>0.04885584720290126</v>
+        <v>0.1306149429488208</v>
       </c>
       <c r="M8">
-        <v>0.7917839829553515</v>
+        <v>0.3886365890116608</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.031717615807793</v>
+        <v>2.547310893380114</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.309869934016433</v>
+        <v>0.3876558926654354</v>
       </c>
       <c r="D9">
-        <v>0.08947755358707354</v>
+        <v>0.04379025648996304</v>
       </c>
       <c r="E9">
-        <v>0.08614679916860979</v>
+        <v>0.1527744153348358</v>
       </c>
       <c r="F9">
-        <v>0.4140428263301814</v>
+        <v>0.720087097871108</v>
       </c>
       <c r="G9">
-        <v>0.2890368997285009</v>
+        <v>0.5582325590836916</v>
       </c>
       <c r="H9">
-        <v>0.2390610457691693</v>
+        <v>0.6944836758019264</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.70654870115726</v>
+        <v>1.594766461461745</v>
       </c>
       <c r="L9">
-        <v>0.04933227362442594</v>
+        <v>0.12787602278555</v>
       </c>
       <c r="M9">
-        <v>1.060595766273828</v>
+        <v>0.4697662634768065</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.063263356571767</v>
+        <v>2.47977791360627</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3529634016957175</v>
+        <v>0.394539768653118</v>
       </c>
       <c r="D10">
-        <v>0.103339147945448</v>
+        <v>0.04840152929165242</v>
       </c>
       <c r="E10">
-        <v>0.09449453082994097</v>
+        <v>0.1528342619863707</v>
       </c>
       <c r="F10">
-        <v>0.4543181391251281</v>
+        <v>0.7156717936794408</v>
       </c>
       <c r="G10">
-        <v>0.312379513968196</v>
+        <v>0.5502495061860486</v>
       </c>
       <c r="H10">
-        <v>0.237634066653257</v>
+        <v>0.6832207857252541</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.578745549023154</v>
+        <v>1.872212305618973</v>
       </c>
       <c r="L10">
-        <v>0.0504189236298771</v>
+        <v>0.1262183985588443</v>
       </c>
       <c r="M10">
-        <v>1.25979914489146</v>
+        <v>0.5294475564014647</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.110469210444961</v>
+        <v>2.439745507808198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3731928720407041</v>
+        <v>0.3978916319120174</v>
       </c>
       <c r="D11">
-        <v>0.109656635139757</v>
+        <v>0.05048874950612969</v>
       </c>
       <c r="E11">
-        <v>0.09852739427534729</v>
+        <v>0.1529530501432035</v>
       </c>
       <c r="F11">
-        <v>0.4745222676115404</v>
+        <v>0.7142834789312502</v>
       </c>
       <c r="G11">
-        <v>0.3248485877903704</v>
+        <v>0.5471847145297204</v>
       </c>
       <c r="H11">
-        <v>0.238008483379474</v>
+        <v>0.6785270831532415</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.976997149935755</v>
+        <v>1.998049530886021</v>
       </c>
       <c r="L11">
-        <v>0.05109538859222695</v>
+        <v>0.1255414186170185</v>
       </c>
       <c r="M11">
-        <v>1.350970370371243</v>
+        <v>0.5566108327104331</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.137998591425117</v>
+        <v>2.423625099492682</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3809520705283092</v>
+        <v>0.3991925500854734</v>
       </c>
       <c r="D12">
-        <v>0.1120513335646365</v>
+        <v>0.05127758281317085</v>
       </c>
       <c r="E12">
-        <v>0.1000913239835697</v>
+        <v>0.1530112011878195</v>
       </c>
       <c r="F12">
-        <v>0.4824683342750475</v>
+        <v>0.7138471879986028</v>
       </c>
       <c r="G12">
-        <v>0.3298610345876654</v>
+        <v>0.5461059932516861</v>
       </c>
       <c r="H12">
-        <v>0.2383084989200768</v>
+        <v>0.6768115677033677</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.128075607655319</v>
+        <v>2.045644786425783</v>
       </c>
       <c r="L12">
-        <v>0.05137973928859552</v>
+        <v>0.1252961573325777</v>
       </c>
       <c r="M12">
-        <v>1.385589728153604</v>
+        <v>0.566898430915785</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.149369389039407</v>
+        <v>2.417822181400624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.37927645128579</v>
+        <v>0.398910967608856</v>
       </c>
       <c r="D13">
-        <v>0.1115354735685798</v>
+        <v>0.05110776318686305</v>
       </c>
       <c r="E13">
-        <v>0.09975281955546933</v>
+        <v>0.1529980916171034</v>
       </c>
       <c r="F13">
-        <v>0.4807434685860628</v>
+        <v>0.7139371695790544</v>
       </c>
       <c r="G13">
-        <v>0.3287681752799472</v>
+        <v>0.5463346693395721</v>
       </c>
       <c r="H13">
-        <v>0.2382366630795048</v>
+        <v>0.6771782809465208</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.095525247510636</v>
+        <v>2.035396856040563</v>
       </c>
       <c r="L13">
-        <v>0.05131721221955843</v>
+        <v>0.1253484850341771</v>
       </c>
       <c r="M13">
-        <v>1.37812935649751</v>
+        <v>0.5646827566032329</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.146877151102757</v>
+        <v>2.419058518464112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3738291949238715</v>
+        <v>0.3979980253799056</v>
       </c>
       <c r="D14">
-        <v>0.1098535959727087</v>
+        <v>0.05055367865783467</v>
       </c>
       <c r="E14">
-        <v>0.09865530527968502</v>
+        <v>0.1529575703371364</v>
       </c>
       <c r="F14">
-        <v>0.4751699324579235</v>
+        <v>0.7142457912291249</v>
       </c>
       <c r="G14">
-        <v>0.3252549917909278</v>
+        <v>0.5470943250968645</v>
       </c>
       <c r="H14">
-        <v>0.2380299284290857</v>
+        <v>0.6783847058997026</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.989420734153953</v>
+        <v>2.001966370616572</v>
       </c>
       <c r="L14">
-        <v>0.0511182053979411</v>
+        <v>0.1255210183674755</v>
       </c>
       <c r="M14">
-        <v>1.353816533684395</v>
+        <v>0.5574571735918283</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.138914662997649</v>
+        <v>2.42314164158222</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3705057211746237</v>
+        <v>0.3974429410299081</v>
       </c>
       <c r="D15">
-        <v>0.1088237324547521</v>
+        <v>0.05021408245150383</v>
       </c>
       <c r="E15">
-        <v>0.09798792508904697</v>
+        <v>0.1529344648693538</v>
       </c>
       <c r="F15">
-        <v>0.4717951814088082</v>
+        <v>0.7144464850664178</v>
       </c>
       <c r="G15">
-        <v>0.3231416814127215</v>
+        <v>0.5475703057418286</v>
       </c>
       <c r="H15">
-        <v>0.2379242458071786</v>
+        <v>0.6791317379256014</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.924465449770878</v>
+        <v>1.981481784704329</v>
       </c>
       <c r="L15">
-        <v>0.05100004067877606</v>
+        <v>0.125628145443816</v>
       </c>
       <c r="M15">
-        <v>1.338937048939769</v>
+        <v>0.5530314685404676</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.134162938253752</v>
+        <v>2.425681967652821</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3516546861444851</v>
+        <v>0.3943251466315019</v>
       </c>
       <c r="D16">
-        <v>0.1029265815553373</v>
+        <v>0.04826490990051013</v>
       </c>
       <c r="E16">
-        <v>0.09423595579250943</v>
+        <v>0.1528283415514728</v>
       </c>
       <c r="F16">
-        <v>0.4530376883301486</v>
+        <v>0.7157750249438664</v>
       </c>
       <c r="G16">
-        <v>0.3116039270139339</v>
+        <v>0.5504612319351168</v>
       </c>
       <c r="H16">
-        <v>0.237631120035104</v>
+        <v>0.6835361863446252</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.55275340476544</v>
+        <v>1.863980779857172</v>
       </c>
       <c r="L16">
-        <v>0.05037854753294724</v>
+        <v>0.1262641929023331</v>
       </c>
       <c r="M16">
-        <v>1.253853292920127</v>
+        <v>0.5276726059698262</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.108798257532698</v>
+        <v>2.44084115955468</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3402565319104554</v>
+        <v>0.3924688857008505</v>
       </c>
       <c r="D17">
-        <v>0.09931237275996807</v>
+        <v>0.04706644097718282</v>
       </c>
       <c r="E17">
-        <v>0.09199655429072351</v>
+        <v>0.1527866912812996</v>
       </c>
       <c r="F17">
-        <v>0.4420296399774557</v>
+        <v>0.716749072032286</v>
       </c>
       <c r="G17">
-        <v>0.3050167603765317</v>
+        <v>0.5523801283309524</v>
       </c>
       <c r="H17">
-        <v>0.2377210613291822</v>
+        <v>0.6863483206322201</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.325138588727327</v>
+        <v>1.791799891918856</v>
       </c>
       <c r="L17">
-        <v>0.05004530730535706</v>
+        <v>0.1266741384708432</v>
       </c>
       <c r="M17">
-        <v>1.201809220113816</v>
+        <v>0.5121189456344979</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.094840584640053</v>
+        <v>2.450676920644298</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.333758982384893</v>
+        <v>0.3914219570054627</v>
       </c>
       <c r="D18">
-        <v>0.09723463802848187</v>
+        <v>0.04637613050296352</v>
       </c>
       <c r="E18">
-        <v>0.09073048360417246</v>
+        <v>0.1527713534446882</v>
       </c>
       <c r="F18">
-        <v>0.4358737430836683</v>
+        <v>0.7173676825129363</v>
       </c>
       <c r="G18">
-        <v>0.3014005898066969</v>
+        <v>0.5535371500004587</v>
       </c>
       <c r="H18">
-        <v>0.2378684275506942</v>
+        <v>0.688006240118554</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.194356724272211</v>
+        <v>1.750248287817897</v>
       </c>
       <c r="L18">
-        <v>0.04987065253460443</v>
+        <v>0.1269171828853253</v>
       </c>
       <c r="M18">
-        <v>1.171925870429547</v>
+        <v>0.5031742379757276</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.08737762236396</v>
+        <v>2.45653090680274</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3315687931396951</v>
+        <v>0.3910710490604856</v>
       </c>
       <c r="D19">
-        <v>0.09653131462754772</v>
+        <v>0.04614223583984511</v>
       </c>
       <c r="E19">
-        <v>0.09030550242617608</v>
+        <v>0.1527676404614482</v>
       </c>
       <c r="F19">
-        <v>0.4338189114762798</v>
+        <v>0.7175871500165556</v>
       </c>
       <c r="G19">
-        <v>0.3002051393019514</v>
+        <v>0.553938045205733</v>
       </c>
       <c r="H19">
-        <v>0.2379344250317175</v>
+        <v>0.6885745288750158</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.150097995813155</v>
+        <v>1.736173690150906</v>
       </c>
       <c r="L19">
-        <v>0.04981438152309892</v>
+        <v>0.1270007191586373</v>
       </c>
       <c r="M19">
-        <v>1.161816198217878</v>
+        <v>0.5001459617909063</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.084945646670917</v>
+        <v>2.458546724260614</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3414637829863807</v>
+        <v>0.3926643413074373</v>
       </c>
       <c r="D20">
-        <v>0.09969699654034514</v>
+        <v>0.04719412209555429</v>
       </c>
       <c r="E20">
-        <v>0.09223264774754725</v>
+        <v>0.1527902330489646</v>
       </c>
       <c r="F20">
-        <v>0.4431831156215864</v>
+        <v>0.7166393407791887</v>
       </c>
       <c r="G20">
-        <v>0.3056999403010252</v>
+        <v>0.5521703372215967</v>
       </c>
       <c r="H20">
-        <v>0.2377015116941834</v>
+        <v>0.6860447767167557</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.349354094053865</v>
+        <v>1.799487319915272</v>
       </c>
       <c r="L20">
-        <v>0.05007900619158434</v>
+        <v>0.1266297481571037</v>
       </c>
       <c r="M20">
-        <v>1.207344012577153</v>
+        <v>0.5137745239966875</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.09626738689937</v>
+        <v>2.449609521020591</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3754264338176938</v>
+        <v>0.39826532030321</v>
       </c>
       <c r="D21">
-        <v>0.110347533008806</v>
+        <v>0.05071646919162731</v>
       </c>
       <c r="E21">
-        <v>0.09897664953805929</v>
+        <v>0.1529691150145496</v>
       </c>
       <c r="F21">
-        <v>0.4767987994998819</v>
+        <v>0.7141527124164995</v>
       </c>
       <c r="G21">
-        <v>0.3262788049291316</v>
+        <v>0.5468689716337707</v>
       </c>
       <c r="H21">
-        <v>0.2380862649138322</v>
+        <v>0.6780286694153119</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.02057842783563</v>
+        <v>2.011787271640515</v>
       </c>
       <c r="L21">
-        <v>0.05117587685848335</v>
+        <v>0.1254700398979409</v>
       </c>
       <c r="M21">
-        <v>1.360955098013036</v>
+        <v>0.5595794673616155</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.141227136299335</v>
+        <v>2.421934138622845</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3982030218260206</v>
+        <v>0.4021102861833867</v>
       </c>
       <c r="D22">
-        <v>0.1173226562770395</v>
+        <v>0.05300946114040528</v>
       </c>
       <c r="E22">
-        <v>0.1036000908077952</v>
+        <v>0.1531627818889589</v>
       </c>
       <c r="F22">
-        <v>0.500501927199096</v>
+        <v>0.7130489578387156</v>
       </c>
       <c r="G22">
-        <v>0.3414353387796325</v>
+        <v>0.5438814625187973</v>
       </c>
       <c r="H22">
-        <v>0.2392657528513524</v>
+        <v>0.6731504452750983</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.46086085246634</v>
+        <v>2.15020656898588</v>
       </c>
       <c r="L22">
-        <v>0.05205808317040805</v>
+        <v>0.124776786999572</v>
       </c>
       <c r="M22">
-        <v>1.461909386010319</v>
+        <v>0.589523873567984</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.176164105826786</v>
+        <v>2.405604649356803</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3859906052680344</v>
+        <v>0.4000412980263661</v>
       </c>
       <c r="D23">
-        <v>0.1135983349174126</v>
+        <v>0.05178649276923863</v>
       </c>
       <c r="E23">
-        <v>0.1011117025571018</v>
+        <v>0.1530523943652433</v>
       </c>
       <c r="F23">
-        <v>0.4876839605567653</v>
+        <v>0.7135902636011693</v>
       </c>
       <c r="G23">
-        <v>0.3331812055744905</v>
+        <v>0.5454321689164914</v>
       </c>
       <c r="H23">
-        <v>0.2385474550317213</v>
+        <v>0.6757210098459012</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.225707920030345</v>
+        <v>2.076360772318765</v>
       </c>
       <c r="L23">
-        <v>0.05157140547776251</v>
+        <v>0.1251408665837417</v>
       </c>
       <c r="M23">
-        <v>1.407971493138362</v>
+        <v>0.5735414087831145</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.156983111884955</v>
+        <v>2.414158849390304</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3409178128642054</v>
+        <v>0.3925759127166941</v>
       </c>
       <c r="D24">
-        <v>0.09952310780165163</v>
+        <v>0.04713640149238074</v>
       </c>
       <c r="E24">
-        <v>0.09212584348524544</v>
+        <v>0.1527886050046767</v>
       </c>
       <c r="F24">
-        <v>0.4426610929512762</v>
+        <v>0.7166887677060245</v>
       </c>
       <c r="G24">
-        <v>0.305390544244375</v>
+        <v>0.5522650161542089</v>
       </c>
       <c r="H24">
-        <v>0.2377100529570981</v>
+        <v>0.6861818806326596</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.338406028643817</v>
+        <v>1.796012001250631</v>
       </c>
       <c r="L24">
-        <v>0.05006371834271661</v>
+        <v>0.1266497940890687</v>
       </c>
       <c r="M24">
-        <v>1.204841617303032</v>
+        <v>0.5130260453922801</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.09562058630928</v>
+        <v>2.450091471721748</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2945008145074723</v>
+        <v>0.3853164922614241</v>
       </c>
       <c r="D25">
-        <v>0.08437891158953903</v>
+        <v>0.0420831207929524</v>
       </c>
       <c r="E25">
-        <v>0.08326315924596273</v>
+        <v>0.1528335449171365</v>
       </c>
       <c r="F25">
-        <v>0.4007270737180022</v>
+        <v>0.7222613499837109</v>
       </c>
       <c r="G25">
-        <v>0.2819275837004227</v>
+        <v>0.5616725459128702</v>
       </c>
       <c r="H25">
-        <v>0.2404250384323277</v>
+        <v>0.6990119689856229</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.386323131373445</v>
+        <v>1.492280082914419</v>
       </c>
       <c r="L25">
-        <v>0.04908112167024115</v>
+        <v>0.1285547250857668</v>
       </c>
       <c r="M25">
-        <v>0.987631468895529</v>
+        <v>0.4478039359369035</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.050777366783748</v>
+        <v>2.496367748167728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3806534858468353</v>
+        <v>0.2619165391441953</v>
       </c>
       <c r="D2">
-        <v>0.03833107441264616</v>
+        <v>0.07323524745622478</v>
       </c>
       <c r="E2">
-        <v>0.1531497260172436</v>
+        <v>0.07735188938375614</v>
       </c>
       <c r="F2">
-        <v>0.7282730210210957</v>
+        <v>0.3747229970884902</v>
       </c>
       <c r="G2">
-        <v>0.5703386385883817</v>
+        <v>0.2694238168100895</v>
       </c>
       <c r="H2">
-        <v>0.7097870972761982</v>
+        <v>0.2451651554613363</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.267548457364114</v>
+        <v>3.687620201853974</v>
       </c>
       <c r="L2">
-        <v>0.1301955329974689</v>
+        <v>0.0488439972507777</v>
       </c>
       <c r="M2">
-        <v>0.3998360253669802</v>
+        <v>0.828787450187086</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.536875369564072</v>
+        <v>1.033580923965843</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3779189058160028</v>
+        <v>0.2406903274379317</v>
       </c>
       <c r="D3">
-        <v>0.03576922354120882</v>
+        <v>0.06567597636532696</v>
       </c>
       <c r="E3">
-        <v>0.1535404883569207</v>
+        <v>0.07368361849325566</v>
       </c>
       <c r="F3">
-        <v>0.7335329962084316</v>
+        <v>0.3597596683205495</v>
       </c>
       <c r="G3">
-        <v>0.5772903253341894</v>
+        <v>0.2635481717978223</v>
       </c>
       <c r="H3">
-        <v>0.7179173613832361</v>
+        <v>0.2499185314547887</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.114592041293292</v>
+        <v>3.214656218309699</v>
       </c>
       <c r="L3">
-        <v>0.1314559830054129</v>
+        <v>0.04895606880507586</v>
       </c>
       <c r="M3">
-        <v>0.3673673862284659</v>
+        <v>0.7215715308653259</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.568326242273088</v>
+        <v>1.030639730011998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3764499214083088</v>
+        <v>0.2280381092102601</v>
       </c>
       <c r="D4">
-        <v>0.03418704470035294</v>
+        <v>0.0610277246777855</v>
       </c>
       <c r="E4">
-        <v>0.1538674515135199</v>
+        <v>0.07158407540106992</v>
       </c>
       <c r="F4">
-        <v>0.7373460182820253</v>
+        <v>0.3517678238884088</v>
       </c>
       <c r="G4">
-        <v>0.5820885879117554</v>
+        <v>0.2611060464608954</v>
       </c>
       <c r="H4">
-        <v>0.7233174499215238</v>
+        <v>0.2535453774041585</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.020366150735498</v>
+        <v>2.924266634834026</v>
       </c>
       <c r="L4">
-        <v>0.1323030877200075</v>
+        <v>0.04915004746267471</v>
       </c>
       <c r="M4">
-        <v>0.3474534518894217</v>
+        <v>0.655882336185762</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.589604354527125</v>
+        <v>1.032776848225581</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3759041718964227</v>
+        <v>0.2229722076953493</v>
       </c>
       <c r="D5">
-        <v>0.0335400260097316</v>
+        <v>0.05913138413433927</v>
       </c>
       <c r="E5">
-        <v>0.1540225798112367</v>
+        <v>0.07076498273807275</v>
       </c>
       <c r="F5">
-        <v>0.7390463430446914</v>
+        <v>0.3487954273612743</v>
       </c>
       <c r="G5">
-        <v>0.5841768568123697</v>
+        <v>0.2603876216174399</v>
       </c>
       <c r="H5">
-        <v>0.7256205970893035</v>
+        <v>0.2551941357611511</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9818930059653042</v>
+        <v>2.805899697776113</v>
       </c>
       <c r="L5">
-        <v>0.1326666856159981</v>
+        <v>0.04925925082270766</v>
       </c>
       <c r="M5">
-        <v>0.339344405732021</v>
+        <v>0.6291395480416782</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.598769254270039</v>
+        <v>1.034589322674307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3758167455932835</v>
+        <v>0.2221362901347135</v>
       </c>
       <c r="D6">
-        <v>0.0334324533555872</v>
+        <v>0.05881635723385159</v>
       </c>
       <c r="E6">
-        <v>0.1540496608241142</v>
+        <v>0.0706311221349587</v>
       </c>
       <c r="F6">
-        <v>0.7393375220538587</v>
+        <v>0.3483185743683848</v>
       </c>
       <c r="G6">
-        <v>0.584531632305108</v>
+        <v>0.2602845809919572</v>
       </c>
       <c r="H6">
-        <v>0.7260092263777054</v>
+        <v>0.2554780191225063</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9755000978059059</v>
+        <v>2.786242152664499</v>
       </c>
       <c r="L6">
-        <v>0.1327281716382416</v>
+        <v>0.04927916794006393</v>
       </c>
       <c r="M6">
-        <v>0.3379982854072878</v>
+        <v>0.6247002365917638</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.600320886700487</v>
+        <v>1.034945737772176</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3764423470867371</v>
+        <v>0.2279694317725784</v>
       </c>
       <c r="D7">
-        <v>0.03417832790499631</v>
+        <v>0.06100215916730178</v>
       </c>
       <c r="E7">
-        <v>0.153869454999672</v>
+        <v>0.07157288357559821</v>
       </c>
       <c r="F7">
-        <v>0.7373683566115332</v>
+        <v>0.3517266068122282</v>
       </c>
       <c r="G7">
-        <v>0.5821162131878239</v>
+        <v>0.2610952579366739</v>
       </c>
       <c r="H7">
-        <v>0.7233480957410308</v>
+        <v>0.2535669310136441</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.01984758994962</v>
+        <v>2.922670464759875</v>
       </c>
       <c r="L7">
-        <v>0.132307916853339</v>
+        <v>0.04915139981425298</v>
       </c>
       <c r="M7">
-        <v>0.3473440652848367</v>
+        <v>0.6555215801416239</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.589725956816253</v>
+        <v>1.032797543677091</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3796670345671487</v>
+        <v>0.2545151467633389</v>
       </c>
       <c r="D8">
-        <v>0.03744968124996717</v>
+        <v>0.07062996093612384</v>
       </c>
       <c r="E8">
-        <v>0.153266398470258</v>
+        <v>0.07605416401426979</v>
       </c>
       <c r="F8">
-        <v>0.7299654554340478</v>
+        <v>0.3693053997851479</v>
       </c>
       <c r="G8">
-        <v>0.5726254138679252</v>
+        <v>0.2671459106222542</v>
       </c>
       <c r="H8">
-        <v>0.7125056893517652</v>
+        <v>0.2466526124464679</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.21487495708277</v>
+        <v>3.524518381215216</v>
       </c>
       <c r="L8">
-        <v>0.1306149429488208</v>
+        <v>0.04885584720291902</v>
       </c>
       <c r="M8">
-        <v>0.3886365890116608</v>
+        <v>0.7917839829553444</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.547310893380114</v>
+        <v>1.031717615807793</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3876558926654354</v>
+        <v>0.3098699340165467</v>
       </c>
       <c r="D9">
-        <v>0.04379025648996304</v>
+        <v>0.08947755358720144</v>
       </c>
       <c r="E9">
-        <v>0.1527744153348358</v>
+        <v>0.08614679916859558</v>
       </c>
       <c r="F9">
-        <v>0.720087097871108</v>
+        <v>0.4140428263301743</v>
       </c>
       <c r="G9">
-        <v>0.5582325590836916</v>
+        <v>0.289036899728508</v>
       </c>
       <c r="H9">
-        <v>0.6944836758019264</v>
+        <v>0.2390610457690556</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.594766461461745</v>
+        <v>4.706548701157203</v>
       </c>
       <c r="L9">
-        <v>0.12787602278555</v>
+        <v>0.04933227362447568</v>
       </c>
       <c r="M9">
-        <v>0.4697662634768065</v>
+        <v>1.060595766273842</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.47977791360627</v>
+        <v>1.06326335657171</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.394539768653118</v>
+        <v>0.3529634016953764</v>
       </c>
       <c r="D10">
-        <v>0.04840152929165242</v>
+        <v>0.1033391479455474</v>
       </c>
       <c r="E10">
-        <v>0.1528342619863707</v>
+        <v>0.09449453082992321</v>
       </c>
       <c r="F10">
-        <v>0.7156717936794408</v>
+        <v>0.4543181391251068</v>
       </c>
       <c r="G10">
-        <v>0.5502495061860486</v>
+        <v>0.3123795139681675</v>
       </c>
       <c r="H10">
-        <v>0.6832207857252541</v>
+        <v>0.2376340666531433</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.872212305618973</v>
+        <v>5.578745549023097</v>
       </c>
       <c r="L10">
-        <v>0.1262183985588443</v>
+        <v>0.05041892362980605</v>
       </c>
       <c r="M10">
-        <v>0.5294475564014647</v>
+        <v>1.25979914489146</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.439745507808198</v>
+        <v>1.110469210444904</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3978916319120174</v>
+        <v>0.3731928720404483</v>
       </c>
       <c r="D11">
-        <v>0.05048874950612969</v>
+        <v>0.1096566351397144</v>
       </c>
       <c r="E11">
-        <v>0.1529530501432035</v>
+        <v>0.09852739427534019</v>
       </c>
       <c r="F11">
-        <v>0.7142834789312502</v>
+        <v>0.4745222676115262</v>
       </c>
       <c r="G11">
-        <v>0.5471847145297204</v>
+        <v>0.3248485877902425</v>
       </c>
       <c r="H11">
-        <v>0.6785270831532415</v>
+        <v>0.238008483379474</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.998049530886021</v>
+        <v>5.976997149935698</v>
       </c>
       <c r="L11">
-        <v>0.1255414186170185</v>
+        <v>0.05109538859218077</v>
       </c>
       <c r="M11">
-        <v>0.5566108327104331</v>
+        <v>1.350970370371257</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.423625099492682</v>
+        <v>1.13799859142506</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3991925500854734</v>
+        <v>0.3809520705285365</v>
       </c>
       <c r="D12">
-        <v>0.05127758281317085</v>
+        <v>0.1120513335646933</v>
       </c>
       <c r="E12">
-        <v>0.1530112011878195</v>
+        <v>0.1000913239835661</v>
       </c>
       <c r="F12">
-        <v>0.7138471879986028</v>
+        <v>0.4824683342750475</v>
       </c>
       <c r="G12">
-        <v>0.5461059932516861</v>
+        <v>0.3298610345876796</v>
       </c>
       <c r="H12">
-        <v>0.6768115677033677</v>
+        <v>0.2383084989200768</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.045644786425783</v>
+        <v>6.128075607655319</v>
       </c>
       <c r="L12">
-        <v>0.1252961573325777</v>
+        <v>0.05137973928848183</v>
       </c>
       <c r="M12">
-        <v>0.566898430915785</v>
+        <v>1.385589728153633</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.417822181400624</v>
+        <v>1.149369389039435</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.398910967608856</v>
+        <v>0.3792764512855058</v>
       </c>
       <c r="D13">
-        <v>0.05110776318686305</v>
+        <v>0.1115354735686935</v>
       </c>
       <c r="E13">
-        <v>0.1529980916171034</v>
+        <v>0.09975281955544091</v>
       </c>
       <c r="F13">
-        <v>0.7139371695790544</v>
+        <v>0.4807434685860414</v>
       </c>
       <c r="G13">
-        <v>0.5463346693395721</v>
+        <v>0.3287681752799898</v>
       </c>
       <c r="H13">
-        <v>0.6771782809465208</v>
+        <v>0.2382366630795048</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.035396856040563</v>
+        <v>6.09552524751075</v>
       </c>
       <c r="L13">
-        <v>0.1253484850341771</v>
+        <v>0.05131721221946961</v>
       </c>
       <c r="M13">
-        <v>0.5646827566032329</v>
+        <v>1.378129356497524</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.419058518464112</v>
+        <v>1.146877151102728</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3979980253799056</v>
+        <v>0.3738291949238715</v>
       </c>
       <c r="D14">
-        <v>0.05055367865783467</v>
+        <v>0.1098535959727229</v>
       </c>
       <c r="E14">
-        <v>0.1529575703371364</v>
+        <v>0.09865530527967437</v>
       </c>
       <c r="F14">
-        <v>0.7142457912291249</v>
+        <v>0.4751699324579093</v>
       </c>
       <c r="G14">
-        <v>0.5470943250968645</v>
+        <v>0.3252549917909278</v>
       </c>
       <c r="H14">
-        <v>0.6783847058997026</v>
+        <v>0.2380299284291993</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.001966370616572</v>
+        <v>5.989420734153896</v>
       </c>
       <c r="L14">
-        <v>0.1255210183674755</v>
+        <v>0.05111820539789491</v>
       </c>
       <c r="M14">
-        <v>0.5574571735918283</v>
+        <v>1.353816533684395</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.42314164158222</v>
+        <v>1.138914662997621</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3974429410299081</v>
+        <v>0.3705057211746805</v>
       </c>
       <c r="D15">
-        <v>0.05021408245150383</v>
+        <v>0.1088237324548231</v>
       </c>
       <c r="E15">
-        <v>0.1529344648693538</v>
+        <v>0.09798792508905052</v>
       </c>
       <c r="F15">
-        <v>0.7144464850664178</v>
+        <v>0.4717951814088224</v>
       </c>
       <c r="G15">
-        <v>0.5475703057418286</v>
+        <v>0.3231416814127215</v>
       </c>
       <c r="H15">
-        <v>0.6791317379256014</v>
+        <v>0.2379242458070649</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.981481784704329</v>
+        <v>5.924465449770878</v>
       </c>
       <c r="L15">
-        <v>0.125628145443816</v>
+        <v>0.05100004067882935</v>
       </c>
       <c r="M15">
-        <v>0.5530314685404676</v>
+        <v>1.338937048939769</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.425681967652821</v>
+        <v>1.134162938253638</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3943251466315019</v>
+        <v>0.3516546861441441</v>
       </c>
       <c r="D16">
-        <v>0.04826490990051013</v>
+        <v>0.1029265815553089</v>
       </c>
       <c r="E16">
-        <v>0.1528283415514728</v>
+        <v>0.09423595579253075</v>
       </c>
       <c r="F16">
-        <v>0.7157750249438664</v>
+        <v>0.4530376883301699</v>
       </c>
       <c r="G16">
-        <v>0.5504612319351168</v>
+        <v>0.3116039270139908</v>
       </c>
       <c r="H16">
-        <v>0.6835361863446252</v>
+        <v>0.237631120035104</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.863980779857172</v>
+        <v>5.552753404765383</v>
       </c>
       <c r="L16">
-        <v>0.1262641929023331</v>
+        <v>0.0503785475328371</v>
       </c>
       <c r="M16">
-        <v>0.5276726059698262</v>
+        <v>1.253853292920127</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.44084115955468</v>
+        <v>1.108798257532669</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3924688857008505</v>
+        <v>0.3402565319104269</v>
       </c>
       <c r="D17">
-        <v>0.04706644097718282</v>
+        <v>0.0993123727601386</v>
       </c>
       <c r="E17">
-        <v>0.1527866912812996</v>
+        <v>0.09199655429075904</v>
       </c>
       <c r="F17">
-        <v>0.716749072032286</v>
+        <v>0.4420296399774557</v>
       </c>
       <c r="G17">
-        <v>0.5523801283309524</v>
+        <v>0.3050167603765317</v>
       </c>
       <c r="H17">
-        <v>0.6863483206322201</v>
+        <v>0.2377210613291822</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.791799891918856</v>
+        <v>5.325138588727441</v>
       </c>
       <c r="L17">
-        <v>0.1266741384708432</v>
+        <v>0.05004530730531798</v>
       </c>
       <c r="M17">
-        <v>0.5121189456344979</v>
+        <v>1.201809220113788</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.450676920644298</v>
+        <v>1.094840584640195</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3914219570054627</v>
+        <v>0.3337589823852056</v>
       </c>
       <c r="D18">
-        <v>0.04637613050296352</v>
+        <v>0.09723463802868082</v>
       </c>
       <c r="E18">
-        <v>0.1527713534446882</v>
+        <v>0.09073048360419023</v>
       </c>
       <c r="F18">
-        <v>0.7173676825129363</v>
+        <v>0.4358737430836612</v>
       </c>
       <c r="G18">
-        <v>0.5535371500004587</v>
+        <v>0.3014005898066188</v>
       </c>
       <c r="H18">
-        <v>0.688006240118554</v>
+        <v>0.2378684275506942</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.750248287817897</v>
+        <v>5.194356724272154</v>
       </c>
       <c r="L18">
-        <v>0.1269171828853253</v>
+        <v>0.0498706525345618</v>
       </c>
       <c r="M18">
-        <v>0.5031742379757276</v>
+        <v>1.171925870429547</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.45653090680274</v>
+        <v>1.087377622363931</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3910710490604856</v>
+        <v>0.3315687931394962</v>
       </c>
       <c r="D19">
-        <v>0.04614223583984511</v>
+        <v>0.09653131462744113</v>
       </c>
       <c r="E19">
-        <v>0.1527676404614482</v>
+        <v>0.09030550242617963</v>
       </c>
       <c r="F19">
-        <v>0.7175871500165556</v>
+        <v>0.4338189114762798</v>
       </c>
       <c r="G19">
-        <v>0.553938045205733</v>
+        <v>0.3002051393019087</v>
       </c>
       <c r="H19">
-        <v>0.6885745288750158</v>
+        <v>0.2379344250317175</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.736173690150906</v>
+        <v>5.150097995813042</v>
       </c>
       <c r="L19">
-        <v>0.1270007191586373</v>
+        <v>0.04981438152310247</v>
       </c>
       <c r="M19">
-        <v>0.5001459617909063</v>
+        <v>1.161816198217878</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.458546724260614</v>
+        <v>1.084945646670917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3926643413074373</v>
+        <v>0.3414637829863807</v>
       </c>
       <c r="D20">
-        <v>0.04719412209555429</v>
+        <v>0.09969699653995434</v>
       </c>
       <c r="E20">
-        <v>0.1527902330489646</v>
+        <v>0.09223264774753659</v>
       </c>
       <c r="F20">
-        <v>0.7166393407791887</v>
+        <v>0.4431831156215722</v>
       </c>
       <c r="G20">
-        <v>0.5521703372215967</v>
+        <v>0.3056999403010963</v>
       </c>
       <c r="H20">
-        <v>0.6860447767167557</v>
+        <v>0.2377015116941692</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.799487319915272</v>
+        <v>5.349354094053865</v>
       </c>
       <c r="L20">
-        <v>0.1266297481571037</v>
+        <v>0.05007900619157013</v>
       </c>
       <c r="M20">
-        <v>0.5137745239966875</v>
+        <v>1.207344012577167</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.449609521020591</v>
+        <v>1.096267386899456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.39826532030321</v>
+        <v>0.3754264338180349</v>
       </c>
       <c r="D21">
-        <v>0.05071646919162731</v>
+        <v>0.1103475330087633</v>
       </c>
       <c r="E21">
-        <v>0.1529691150145496</v>
+        <v>0.0989766495380664</v>
       </c>
       <c r="F21">
-        <v>0.7141527124164995</v>
+        <v>0.4767987994998961</v>
       </c>
       <c r="G21">
-        <v>0.5468689716337707</v>
+        <v>0.3262788049291885</v>
       </c>
       <c r="H21">
-        <v>0.6780286694153119</v>
+        <v>0.2380862649139459</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.011787271640515</v>
+        <v>6.02057842783563</v>
       </c>
       <c r="L21">
-        <v>0.1254700398979409</v>
+        <v>0.05117587685834124</v>
       </c>
       <c r="M21">
-        <v>0.5595794673616155</v>
+        <v>1.360955098013008</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.421934138622845</v>
+        <v>1.141227136299307</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4021102861833867</v>
+        <v>0.3982030218258785</v>
       </c>
       <c r="D22">
-        <v>0.05300946114040528</v>
+        <v>0.1173226562770537</v>
       </c>
       <c r="E22">
-        <v>0.1531627818889589</v>
+        <v>0.1036000908078236</v>
       </c>
       <c r="F22">
-        <v>0.7130489578387156</v>
+        <v>0.5005019271991173</v>
       </c>
       <c r="G22">
-        <v>0.5438814625187973</v>
+        <v>0.3414353387795899</v>
       </c>
       <c r="H22">
-        <v>0.6731504452750983</v>
+        <v>0.2392657528513382</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.15020656898588</v>
+        <v>6.460860852466396</v>
       </c>
       <c r="L22">
-        <v>0.124776786999572</v>
+        <v>0.05205808317041871</v>
       </c>
       <c r="M22">
-        <v>0.589523873567984</v>
+        <v>1.461909386010305</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.405604649356803</v>
+        <v>1.176164105826786</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4000412980263661</v>
+        <v>0.3859906052678355</v>
       </c>
       <c r="D23">
-        <v>0.05178649276923863</v>
+        <v>0.1135983349174694</v>
       </c>
       <c r="E23">
-        <v>0.1530523943652433</v>
+        <v>0.1011117025570911</v>
       </c>
       <c r="F23">
-        <v>0.7135902636011693</v>
+        <v>0.4876839605567511</v>
       </c>
       <c r="G23">
-        <v>0.5454321689164914</v>
+        <v>0.3331812055745047</v>
       </c>
       <c r="H23">
-        <v>0.6757210098459012</v>
+        <v>0.2385474550317213</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.076360772318765</v>
+        <v>6.225707920030459</v>
       </c>
       <c r="L23">
-        <v>0.1251408665837417</v>
+        <v>0.05157140547771277</v>
       </c>
       <c r="M23">
-        <v>0.5735414087831145</v>
+        <v>1.407971493138362</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.414158849390304</v>
+        <v>1.156983111884955</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3925759127166941</v>
+        <v>0.3409178128637222</v>
       </c>
       <c r="D24">
-        <v>0.04713640149238074</v>
+        <v>0.09952310780177953</v>
       </c>
       <c r="E24">
-        <v>0.1527886050046767</v>
+        <v>0.09212584348524899</v>
       </c>
       <c r="F24">
-        <v>0.7166887677060245</v>
+        <v>0.4426610929512478</v>
       </c>
       <c r="G24">
-        <v>0.5522650161542089</v>
+        <v>0.3053905442443892</v>
       </c>
       <c r="H24">
-        <v>0.6861818806326596</v>
+        <v>0.2377100529570839</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.796012001250631</v>
+        <v>5.338406028643931</v>
       </c>
       <c r="L24">
-        <v>0.1266497940890687</v>
+        <v>0.0500637183427024</v>
       </c>
       <c r="M24">
-        <v>0.5130260453922801</v>
+        <v>1.204841617303046</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.450091471721748</v>
+        <v>1.095620586309309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3853164922614241</v>
+        <v>0.2945008145073587</v>
       </c>
       <c r="D25">
-        <v>0.0420831207929524</v>
+        <v>0.08437891158936139</v>
       </c>
       <c r="E25">
-        <v>0.1528335449171365</v>
+        <v>0.08326315924596983</v>
       </c>
       <c r="F25">
-        <v>0.7222613499837109</v>
+        <v>0.400727073717988</v>
       </c>
       <c r="G25">
-        <v>0.5616725459128702</v>
+        <v>0.2819275837003019</v>
       </c>
       <c r="H25">
-        <v>0.6990119689856229</v>
+        <v>0.2404250384324413</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.492280082914419</v>
+        <v>4.386323131373331</v>
       </c>
       <c r="L25">
-        <v>0.1285547250857668</v>
+        <v>0.04908112167023049</v>
       </c>
       <c r="M25">
-        <v>0.4478039359369035</v>
+        <v>0.9876314688955361</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.496367748167728</v>
+        <v>1.050777366783734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2619165391441953</v>
+        <v>0.2197074230664384</v>
       </c>
       <c r="D2">
-        <v>0.07323524745622478</v>
+        <v>0.1536214069556223</v>
       </c>
       <c r="E2">
-        <v>0.07735188938375614</v>
+        <v>0.1108848134335148</v>
       </c>
       <c r="F2">
-        <v>0.3747229970884902</v>
+        <v>0.7260989602140739</v>
       </c>
       <c r="G2">
-        <v>0.2694238168100895</v>
+        <v>0.4338202836153471</v>
       </c>
       <c r="H2">
-        <v>0.2451651554613363</v>
+        <v>0.001006968133762887</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004990269374993694</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3605205751231608</v>
       </c>
       <c r="K2">
-        <v>3.687620201853974</v>
+        <v>0.5216541449313254</v>
       </c>
       <c r="L2">
-        <v>0.0488439972507777</v>
+        <v>0.114744377404655</v>
       </c>
       <c r="M2">
-        <v>0.828787450187086</v>
+        <v>2.953302134296905</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1134805319408514</v>
       </c>
       <c r="O2">
-        <v>1.033580923965843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.093040988581706</v>
+      </c>
+      <c r="Q2">
+        <v>1.62196853770547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2406903274379317</v>
+        <v>0.1998515032952071</v>
       </c>
       <c r="D3">
-        <v>0.06567597636532696</v>
+        <v>0.1384715698840182</v>
       </c>
       <c r="E3">
-        <v>0.07368361849325566</v>
+        <v>0.1017348430753025</v>
       </c>
       <c r="F3">
-        <v>0.3597596683205495</v>
+        <v>0.6940229121379176</v>
       </c>
       <c r="G3">
-        <v>0.2635481717978223</v>
+        <v>0.4150248947982718</v>
       </c>
       <c r="H3">
-        <v>0.2499185314547887</v>
+        <v>0.001979281784458276</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0008479416349933544</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3556658443996028</v>
       </c>
       <c r="K3">
-        <v>3.214656218309699</v>
+        <v>0.4995376019230733</v>
       </c>
       <c r="L3">
-        <v>0.04895606880507586</v>
+        <v>0.1066212069223056</v>
       </c>
       <c r="M3">
-        <v>0.7215715308653259</v>
+        <v>2.574517797084354</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1048707345562363</v>
       </c>
       <c r="O3">
-        <v>1.030639730011998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.06295914151471</v>
+      </c>
+      <c r="Q3">
+        <v>1.571679826282448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2280381092102601</v>
+        <v>0.1874314220681157</v>
       </c>
       <c r="D4">
-        <v>0.0610277246777855</v>
+        <v>0.1291891274075425</v>
       </c>
       <c r="E4">
-        <v>0.07158407540106992</v>
+        <v>0.09608761247241659</v>
       </c>
       <c r="F4">
-        <v>0.3517678238884088</v>
+        <v>0.6747790143039936</v>
       </c>
       <c r="G4">
-        <v>0.2611060464608954</v>
+        <v>0.403841826446012</v>
       </c>
       <c r="H4">
-        <v>0.2535453774041585</v>
+        <v>0.002769688021915018</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001282512735947261</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3529355521413819</v>
       </c>
       <c r="K4">
-        <v>2.924266634834026</v>
+        <v>0.4861356839084294</v>
       </c>
       <c r="L4">
-        <v>0.04915004746267471</v>
+        <v>0.1015702497544169</v>
       </c>
       <c r="M4">
-        <v>0.655882336185762</v>
+        <v>2.341033582034498</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09963109882076537</v>
       </c>
       <c r="O4">
-        <v>1.032776848225581</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.045194182825341</v>
+      </c>
+      <c r="Q4">
+        <v>1.542076598360794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2229722076953493</v>
+        <v>0.1818340451461182</v>
       </c>
       <c r="D5">
-        <v>0.05913138413433927</v>
+        <v>0.1254178495026821</v>
       </c>
       <c r="E5">
-        <v>0.07076498273807275</v>
+        <v>0.09372733350922147</v>
       </c>
       <c r="F5">
-        <v>0.3487954273612743</v>
+        <v>0.6666146809906479</v>
       </c>
       <c r="G5">
-        <v>0.2603876216174399</v>
+        <v>0.3990212827004953</v>
       </c>
       <c r="H5">
-        <v>0.2551941357611511</v>
+        <v>0.003141272436759879</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001584417004939276</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3517070941974509</v>
       </c>
       <c r="K5">
-        <v>2.805899697776113</v>
+        <v>0.4802326308878193</v>
       </c>
       <c r="L5">
-        <v>0.04925925082270766</v>
+        <v>0.09940951310329282</v>
       </c>
       <c r="M5">
-        <v>0.6291395480416782</v>
+        <v>2.244811906606429</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09761472308667862</v>
       </c>
       <c r="O5">
-        <v>1.034589322674307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.038467901245198</v>
+      </c>
+      <c r="Q5">
+        <v>1.529209854157557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2221362901347135</v>
+        <v>0.1803159620217514</v>
       </c>
       <c r="D6">
-        <v>0.05881635723385159</v>
+        <v>0.1248004842339725</v>
       </c>
       <c r="E6">
-        <v>0.0706311221349587</v>
+        <v>0.09327210165750088</v>
       </c>
       <c r="F6">
-        <v>0.3483185743683848</v>
+        <v>0.6647389869087945</v>
       </c>
       <c r="G6">
-        <v>0.2602845809919572</v>
+        <v>0.3977997295880371</v>
       </c>
       <c r="H6">
-        <v>0.2554780191225063</v>
+        <v>0.003209195023186173</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00173263271224311</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3512905685699721</v>
       </c>
       <c r="K6">
-        <v>2.786242152664499</v>
+        <v>0.4786634446521205</v>
       </c>
       <c r="L6">
-        <v>0.04927916794006393</v>
+        <v>0.09894432926136432</v>
       </c>
       <c r="M6">
-        <v>0.6247002365917638</v>
+        <v>2.227787190124275</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09741293561889108</v>
       </c>
       <c r="O6">
-        <v>1.034945737772176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.0377800660753</v>
+      </c>
+      <c r="Q6">
+        <v>1.52573506751537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2279694317725784</v>
+        <v>0.185752183926482</v>
       </c>
       <c r="D7">
-        <v>0.06100215916730178</v>
+        <v>0.1291618178707523</v>
       </c>
       <c r="E7">
-        <v>0.07157288357559821</v>
+        <v>0.09588401379455647</v>
       </c>
       <c r="F7">
-        <v>0.3517266068122282</v>
+        <v>0.6732300318291138</v>
       </c>
       <c r="G7">
-        <v>0.2610952579366739</v>
+        <v>0.4026117221456147</v>
       </c>
       <c r="H7">
-        <v>0.2535669310136441</v>
+        <v>0.002783078582787368</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001529349579809214</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3523286522523534</v>
       </c>
       <c r="K7">
-        <v>2.922670464759875</v>
+        <v>0.4844387065126909</v>
       </c>
       <c r="L7">
-        <v>0.04915139981425298</v>
+        <v>0.1012529932759598</v>
       </c>
       <c r="M7">
-        <v>0.6555215801416239</v>
+        <v>2.336905048451996</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09996592181975927</v>
       </c>
       <c r="O7">
-        <v>1.032797543677091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.046256684527364</v>
+      </c>
+      <c r="Q7">
+        <v>1.53819603407095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2545151467633389</v>
+        <v>0.2107698621114906</v>
       </c>
       <c r="D8">
-        <v>0.07062996093612384</v>
+        <v>0.1484247750519501</v>
       </c>
       <c r="E8">
-        <v>0.07605416401426979</v>
+        <v>0.1075077354101523</v>
       </c>
       <c r="F8">
-        <v>0.3693053997851479</v>
+        <v>0.7130361594007795</v>
       </c>
       <c r="G8">
-        <v>0.2671459106222542</v>
+        <v>0.4257181846787716</v>
       </c>
       <c r="H8">
-        <v>0.2466526124464679</v>
+        <v>0.001308290774231891</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0008601262703002988</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3580140763367723</v>
       </c>
       <c r="K8">
-        <v>3.524518381215216</v>
+        <v>0.5118446512530852</v>
       </c>
       <c r="L8">
-        <v>0.04885584720291902</v>
+        <v>0.1115741828217338</v>
       </c>
       <c r="M8">
-        <v>0.7917839829553444</v>
+        <v>2.819095204725812</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1109838010126438</v>
       </c>
       <c r="O8">
-        <v>1.031717615807793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.084087770816836</v>
+      </c>
+      <c r="Q8">
+        <v>1.599448768440638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3098699340165467</v>
+        <v>0.260891523336781</v>
       </c>
       <c r="D9">
-        <v>0.08947755358720144</v>
+        <v>0.1863409736759252</v>
       </c>
       <c r="E9">
-        <v>0.08614679916859558</v>
+        <v>0.1303950015310136</v>
       </c>
       <c r="F9">
-        <v>0.4140428263301743</v>
+        <v>0.7975080300182853</v>
       </c>
       <c r="G9">
-        <v>0.289036899728508</v>
+        <v>0.4761822958906237</v>
       </c>
       <c r="H9">
-        <v>0.2390610457690556</v>
+        <v>3.483059018916101E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001040994159237307</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.372303154830874</v>
       </c>
       <c r="K9">
-        <v>4.706548701157203</v>
+        <v>0.5700263598041033</v>
       </c>
       <c r="L9">
-        <v>0.04933227362447568</v>
+        <v>0.1318446547417764</v>
       </c>
       <c r="M9">
-        <v>1.060595766273842</v>
+        <v>3.762778239739248</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1323514932489545</v>
       </c>
       <c r="O9">
-        <v>1.06326335657171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.162018126218214</v>
+      </c>
+      <c r="Q9">
+        <v>1.737001553350012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3529634016953764</v>
+        <v>0.2921224401029292</v>
       </c>
       <c r="D10">
-        <v>0.1033391479455474</v>
+        <v>0.2114259221939392</v>
       </c>
       <c r="E10">
-        <v>0.09449453082992321</v>
+        <v>0.1432069361748951</v>
       </c>
       <c r="F10">
-        <v>0.4543181391251068</v>
+        <v>0.8526272724526791</v>
       </c>
       <c r="G10">
-        <v>0.3123795139681675</v>
+        <v>0.5093098070567663</v>
       </c>
       <c r="H10">
-        <v>0.2376340666531433</v>
+        <v>0.0003769508745232741</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002534698813758673</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3811665864214291</v>
       </c>
       <c r="K10">
-        <v>5.578745549023097</v>
+        <v>0.606927068278452</v>
       </c>
       <c r="L10">
-        <v>0.05041892362980605</v>
+        <v>0.1416352574780646</v>
       </c>
       <c r="M10">
-        <v>1.25979914489146</v>
+        <v>4.436540843297507</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1430057894907506</v>
       </c>
       <c r="O10">
-        <v>1.110469210444904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.230029534604398</v>
+      </c>
+      <c r="Q10">
+        <v>1.826226588101292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3731928720404483</v>
+        <v>0.2726071351891761</v>
       </c>
       <c r="D11">
-        <v>0.1096566351397144</v>
+        <v>0.1977165096206477</v>
       </c>
       <c r="E11">
-        <v>0.09852739427534019</v>
+        <v>0.1178008053334452</v>
       </c>
       <c r="F11">
-        <v>0.4745222676115262</v>
+        <v>0.7993341215558445</v>
       </c>
       <c r="G11">
-        <v>0.3248485877902425</v>
+        <v>0.4753188893319731</v>
       </c>
       <c r="H11">
-        <v>0.238008483379474</v>
+        <v>0.01894971702033388</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003505006986872949</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3608542456253758</v>
       </c>
       <c r="K11">
-        <v>5.976997149935698</v>
+        <v>0.5686225274304633</v>
       </c>
       <c r="L11">
-        <v>0.05109538859218077</v>
+        <v>0.1097195884825979</v>
       </c>
       <c r="M11">
-        <v>1.350970370371257</v>
+        <v>4.612575998812304</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1052984501779477</v>
       </c>
       <c r="O11">
-        <v>1.13799859142506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.319919807507674</v>
+      </c>
+      <c r="Q11">
+        <v>1.711798257570791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3809520705285365</v>
+        <v>0.2527944104391082</v>
       </c>
       <c r="D12">
-        <v>0.1120513335646933</v>
+        <v>0.1812033831055402</v>
       </c>
       <c r="E12">
-        <v>0.1000913239835661</v>
+        <v>0.09671835708823906</v>
       </c>
       <c r="F12">
-        <v>0.4824683342750475</v>
+        <v>0.7456334191674898</v>
       </c>
       <c r="G12">
-        <v>0.3298610345876796</v>
+        <v>0.4418731700446301</v>
       </c>
       <c r="H12">
-        <v>0.2383084989200768</v>
+        <v>0.0575724437954932</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003557177429303948</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3428171827655717</v>
       </c>
       <c r="K12">
-        <v>6.128075607655319</v>
+        <v>0.5316138324463182</v>
       </c>
       <c r="L12">
-        <v>0.05137973928848183</v>
+        <v>0.08748584665839232</v>
       </c>
       <c r="M12">
-        <v>1.385589728153633</v>
+        <v>4.621023050083807</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07748085747357081</v>
       </c>
       <c r="O12">
-        <v>1.149369389039435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.382487106508265</v>
+      </c>
+      <c r="Q12">
+        <v>1.603179218035621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3792764512855058</v>
+        <v>0.2292161270392228</v>
       </c>
       <c r="D13">
-        <v>0.1115354735686935</v>
+        <v>0.1617131149044866</v>
       </c>
       <c r="E13">
-        <v>0.09975281955544091</v>
+        <v>0.07756637444030545</v>
       </c>
       <c r="F13">
-        <v>0.4807434685860414</v>
+        <v>0.6863081327674436</v>
       </c>
       <c r="G13">
-        <v>0.3287681752799898</v>
+        <v>0.4050629664196208</v>
       </c>
       <c r="H13">
-        <v>0.2382366630795048</v>
+        <v>0.1132209453097062</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003222550657932644</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3245267189079044</v>
       </c>
       <c r="K13">
-        <v>6.09552524751075</v>
+        <v>0.4909749331362647</v>
       </c>
       <c r="L13">
-        <v>0.05131721221946961</v>
+        <v>0.07099432566715258</v>
       </c>
       <c r="M13">
-        <v>1.378129356497524</v>
+        <v>4.496440881512171</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05627470867664641</v>
       </c>
       <c r="O13">
-        <v>1.146877151102728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.428457258530898</v>
+      </c>
+      <c r="Q13">
+        <v>1.486813341340053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3738291949238715</v>
+        <v>0.2108503722074744</v>
       </c>
       <c r="D14">
-        <v>0.1098535959727229</v>
+        <v>0.1469160280539796</v>
       </c>
       <c r="E14">
-        <v>0.09865530527967437</v>
+        <v>0.06549086067015786</v>
       </c>
       <c r="F14">
-        <v>0.4751699324579093</v>
+        <v>0.642364885533631</v>
       </c>
       <c r="G14">
-        <v>0.3252549917909278</v>
+        <v>0.3777892223351955</v>
       </c>
       <c r="H14">
-        <v>0.2380299284291993</v>
+        <v>0.1624896383034695</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002916047225422602</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.311588927227163</v>
       </c>
       <c r="K14">
-        <v>5.989420734153896</v>
+        <v>0.4608138564527735</v>
       </c>
       <c r="L14">
-        <v>0.05111820539789491</v>
+        <v>0.06292938650486413</v>
       </c>
       <c r="M14">
-        <v>1.353816533684395</v>
+        <v>4.348523072842795</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04546522059891345</v>
       </c>
       <c r="O14">
-        <v>1.138914662997621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.453473428468172</v>
+      </c>
+      <c r="Q14">
+        <v>1.40184299085314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3705057211746805</v>
+        <v>0.2050300039369972</v>
       </c>
       <c r="D15">
-        <v>0.1088237324548231</v>
+        <v>0.1426682247400066</v>
       </c>
       <c r="E15">
-        <v>0.09798792508905052</v>
+        <v>0.06259209911088703</v>
       </c>
       <c r="F15">
-        <v>0.4717951814088224</v>
+        <v>0.6299958605719809</v>
       </c>
       <c r="G15">
-        <v>0.3231416814127215</v>
+        <v>0.3700475366393974</v>
       </c>
       <c r="H15">
-        <v>0.2379242458070649</v>
+        <v>0.174967025392192</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002876838682401406</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3082052155521851</v>
       </c>
       <c r="K15">
-        <v>5.924465449770878</v>
+        <v>0.4521579179174964</v>
       </c>
       <c r="L15">
-        <v>0.05100004067882935</v>
+        <v>0.06135757346394577</v>
       </c>
       <c r="M15">
-        <v>1.338937048939769</v>
+        <v>4.283515517302192</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04339888040859918</v>
       </c>
       <c r="O15">
-        <v>1.134162938253638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.456050594163514</v>
+      </c>
+      <c r="Q15">
+        <v>1.378311899107189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3516546861441441</v>
+        <v>0.1962471964318269</v>
       </c>
       <c r="D16">
-        <v>0.1029265815553089</v>
+        <v>0.1363398092496055</v>
       </c>
       <c r="E16">
-        <v>0.09423595579253075</v>
+        <v>0.06142486890437304</v>
       </c>
       <c r="F16">
-        <v>0.4530376883301699</v>
+        <v>0.6182305461024171</v>
       </c>
       <c r="G16">
-        <v>0.3116039270139908</v>
+        <v>0.3629097565473387</v>
       </c>
       <c r="H16">
-        <v>0.237631120035104</v>
+        <v>0.162094178764093</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002380712514904459</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.307795381913138</v>
       </c>
       <c r="K16">
-        <v>5.552753404765383</v>
+        <v>0.4441846253653807</v>
       </c>
       <c r="L16">
-        <v>0.0503785475328371</v>
+        <v>0.06085066330961197</v>
       </c>
       <c r="M16">
-        <v>1.253853292920127</v>
+        <v>4.019938495134511</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04374436133060478</v>
       </c>
       <c r="O16">
-        <v>1.108798257532669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.41505396670776</v>
+      </c>
+      <c r="Q16">
+        <v>1.362140084664347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3402565319104269</v>
+        <v>0.1989862520625536</v>
       </c>
       <c r="D17">
-        <v>0.0993123727601386</v>
+        <v>0.1392281320480322</v>
       </c>
       <c r="E17">
-        <v>0.09199655429075904</v>
+        <v>0.06658645169278898</v>
       </c>
       <c r="F17">
-        <v>0.4420296399774557</v>
+        <v>0.632328202503011</v>
       </c>
       <c r="G17">
-        <v>0.3050167603765317</v>
+        <v>0.3718019452271619</v>
       </c>
       <c r="H17">
-        <v>0.2377210613291822</v>
+        <v>0.1242682247743119</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002200112717074987</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3143304228387933</v>
       </c>
       <c r="K17">
-        <v>5.325138588727441</v>
+        <v>0.4538842631106519</v>
       </c>
       <c r="L17">
-        <v>0.05004530730531798</v>
+        <v>0.06407605670321104</v>
       </c>
       <c r="M17">
-        <v>1.201809220113788</v>
+        <v>3.896235974803574</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04910406260500189</v>
       </c>
       <c r="O17">
-        <v>1.094840584640195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.370792448030244</v>
+      </c>
+      <c r="Q17">
+        <v>1.394567625633996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3337589823852056</v>
+        <v>0.2135438240124188</v>
       </c>
       <c r="D18">
-        <v>0.09723463802868082</v>
+        <v>0.1506471577661586</v>
       </c>
       <c r="E18">
-        <v>0.09073048360419023</v>
+        <v>0.07933741054961274</v>
       </c>
       <c r="F18">
-        <v>0.4358737430836612</v>
+        <v>0.6718660614657992</v>
       </c>
       <c r="G18">
-        <v>0.3014005898066188</v>
+        <v>0.3966558705957937</v>
       </c>
       <c r="H18">
-        <v>0.2378684275506942</v>
+        <v>0.07143582587040243</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001935302048522658</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3280974764694946</v>
       </c>
       <c r="K18">
-        <v>5.194356724272154</v>
+        <v>0.4814963081800911</v>
       </c>
       <c r="L18">
-        <v>0.0498706525345618</v>
+        <v>0.07413942121924677</v>
       </c>
       <c r="M18">
-        <v>1.171925870429547</v>
+        <v>3.880254439182295</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06268211232002585</v>
       </c>
       <c r="O18">
-        <v>1.087377622363931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.318512964989822</v>
+      </c>
+      <c r="Q18">
+        <v>1.476032758265916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3315687931394962</v>
+        <v>0.2347742750605875</v>
       </c>
       <c r="D19">
-        <v>0.09653131462744113</v>
+        <v>0.1686912413304356</v>
       </c>
       <c r="E19">
-        <v>0.09030550242617963</v>
+        <v>0.09933337686478794</v>
       </c>
       <c r="F19">
-        <v>0.4338189114762798</v>
+        <v>0.727955555693697</v>
       </c>
       <c r="G19">
-        <v>0.3002051393019087</v>
+        <v>0.431457236972804</v>
       </c>
       <c r="H19">
-        <v>0.2379344250317175</v>
+        <v>0.02620159626776086</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002132899922401066</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3460269000578933</v>
       </c>
       <c r="K19">
-        <v>5.150097995813042</v>
+        <v>0.5198267733026825</v>
       </c>
       <c r="L19">
-        <v>0.04981438152310247</v>
+        <v>0.09350594583665739</v>
       </c>
       <c r="M19">
-        <v>1.161816198217878</v>
+        <v>3.946039519714475</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0873776319626387</v>
       </c>
       <c r="O19">
-        <v>1.084945646670917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.267660806266449</v>
+      </c>
+      <c r="Q19">
+        <v>1.587351713119432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3414637829863807</v>
+        <v>0.2787969595411539</v>
       </c>
       <c r="D20">
-        <v>0.09969699653995434</v>
+        <v>0.2047832496809434</v>
       </c>
       <c r="E20">
-        <v>0.09223264774753659</v>
+        <v>0.1391572821346365</v>
       </c>
       <c r="F20">
-        <v>0.4431831156215722</v>
+        <v>0.8331018735931437</v>
       </c>
       <c r="G20">
-        <v>0.3056999403010963</v>
+        <v>0.4965821586562527</v>
       </c>
       <c r="H20">
-        <v>0.2377015116941692</v>
+        <v>0.0001889870256372994</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002775216616194065</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3768002290244254</v>
       </c>
       <c r="K20">
-        <v>5.349354094053865</v>
+        <v>0.591850534571833</v>
       </c>
       <c r="L20">
-        <v>0.05007900619157013</v>
+        <v>0.1379972958877858</v>
       </c>
       <c r="M20">
-        <v>1.207344012577167</v>
+        <v>4.250195945910662</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1410898236056113</v>
       </c>
       <c r="O20">
-        <v>1.096267386899456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.216029465549695</v>
+      </c>
+      <c r="Q20">
+        <v>1.789987674759629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3754264338180349</v>
+        <v>0.3090529350228053</v>
       </c>
       <c r="D21">
-        <v>0.1103475330087633</v>
+        <v>0.2286196664396414</v>
       </c>
       <c r="E21">
-        <v>0.0989766495380664</v>
+        <v>0.1549602832818806</v>
       </c>
       <c r="F21">
-        <v>0.4767987994998961</v>
+        <v>0.8911329218170749</v>
       </c>
       <c r="G21">
-        <v>0.3262788049291885</v>
+        <v>0.5321725655466167</v>
       </c>
       <c r="H21">
-        <v>0.2380862649139459</v>
+        <v>0.0006205799757565966</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004264384372800301</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3887531740875971</v>
       </c>
       <c r="K21">
-        <v>6.02057842783563</v>
+        <v>0.6311675841949338</v>
       </c>
       <c r="L21">
-        <v>0.05117587685834124</v>
+        <v>0.1528542247577178</v>
       </c>
       <c r="M21">
-        <v>1.360955098013008</v>
+        <v>4.789801325588485</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1577349768937637</v>
       </c>
       <c r="O21">
-        <v>1.141227136299307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.259368156408144</v>
+      </c>
+      <c r="Q21">
+        <v>1.890796090264814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3982030218258785</v>
+        <v>0.3288963524332047</v>
       </c>
       <c r="D22">
-        <v>0.1173226562770537</v>
+        <v>0.2427152336769325</v>
       </c>
       <c r="E22">
-        <v>0.1036000908078236</v>
+        <v>0.1635672656068969</v>
       </c>
       <c r="F22">
-        <v>0.5005019271991173</v>
+        <v>0.9270130443493656</v>
       </c>
       <c r="G22">
-        <v>0.3414353387795899</v>
+        <v>0.5546370706278196</v>
       </c>
       <c r="H22">
-        <v>0.2392657528513382</v>
+        <v>0.001221599712347254</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005218735857539514</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3962270763466051</v>
       </c>
       <c r="K22">
-        <v>6.460860852466396</v>
+        <v>0.6561159805538637</v>
       </c>
       <c r="L22">
-        <v>0.05205808317041871</v>
+        <v>0.1605224068783926</v>
       </c>
       <c r="M22">
-        <v>1.461909386010305</v>
+        <v>5.138512614522597</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1653694542564708</v>
       </c>
       <c r="O22">
-        <v>1.176164105826786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.290022904880118</v>
+      </c>
+      <c r="Q22">
+        <v>1.954277093470068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3859906052678355</v>
+        <v>0.3202528856742504</v>
       </c>
       <c r="D23">
-        <v>0.1135983349174694</v>
+        <v>0.2351596797997075</v>
       </c>
       <c r="E23">
-        <v>0.1011117025570911</v>
+        <v>0.1591796027559234</v>
       </c>
       <c r="F23">
-        <v>0.4876839605567511</v>
+        <v>0.9095102828946722</v>
       </c>
       <c r="G23">
-        <v>0.3331812055745047</v>
+        <v>0.5439817232015685</v>
       </c>
       <c r="H23">
-        <v>0.2385474550317213</v>
+        <v>0.0008816493217742583</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004409506347695213</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3929003514559639</v>
       </c>
       <c r="K23">
-        <v>6.225707920030459</v>
+        <v>0.6446952816137994</v>
       </c>
       <c r="L23">
-        <v>0.05157140547771277</v>
+        <v>0.1567760632163981</v>
       </c>
       <c r="M23">
-        <v>1.407971493138362</v>
+        <v>4.955929969013653</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1608467790732888</v>
       </c>
       <c r="O23">
-        <v>1.156983111884955</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.272083075146696</v>
+      </c>
+      <c r="Q23">
+        <v>1.92461266623161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3409178128637222</v>
+        <v>0.2840942978188679</v>
       </c>
       <c r="D24">
-        <v>0.09952310780177953</v>
+        <v>0.2066756374222365</v>
       </c>
       <c r="E24">
-        <v>0.09212584348524899</v>
+        <v>0.1422224209417919</v>
       </c>
       <c r="F24">
-        <v>0.4426610929512478</v>
+        <v>0.8418345057870766</v>
       </c>
       <c r="G24">
-        <v>0.3053905442443892</v>
+        <v>0.5025198218609859</v>
       </c>
       <c r="H24">
-        <v>0.2377100529570839</v>
+        <v>8.433616730285642E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002327143301486423</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3798514070299746</v>
       </c>
       <c r="K24">
-        <v>5.338406028643931</v>
+        <v>0.5990122070469539</v>
       </c>
       <c r="L24">
-        <v>0.0500637183427024</v>
+        <v>0.14197411161377</v>
       </c>
       <c r="M24">
-        <v>1.204841617303046</v>
+        <v>4.257877516366307</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1445570021930891</v>
       </c>
       <c r="O24">
-        <v>1.095620586309309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.208224869000915</v>
+      </c>
+      <c r="Q24">
+        <v>1.808962541353424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2945008145073587</v>
+        <v>0.2445956711203792</v>
       </c>
       <c r="D25">
-        <v>0.08437891158936139</v>
+        <v>0.176102765781053</v>
       </c>
       <c r="E25">
-        <v>0.08326315924596983</v>
+        <v>0.1239113155260512</v>
       </c>
       <c r="F25">
-        <v>0.400727073717988</v>
+        <v>0.7715997532257646</v>
       </c>
       <c r="G25">
-        <v>0.2819275837003019</v>
+        <v>0.4600554622731039</v>
       </c>
       <c r="H25">
-        <v>0.2404250384324413</v>
+        <v>0.0001951937012312221</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001181180063491993</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.367137621932585</v>
       </c>
       <c r="K25">
-        <v>4.386323131373331</v>
+        <v>0.5511677556186925</v>
       </c>
       <c r="L25">
-        <v>0.04908112167023049</v>
+        <v>0.1258872945665672</v>
       </c>
       <c r="M25">
-        <v>0.9876314688955361</v>
+        <v>3.502959244142687</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.127186319848569</v>
       </c>
       <c r="O25">
-        <v>1.050777366783734</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.142475875378693</v>
+      </c>
+      <c r="Q25">
+        <v>1.691826570427367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2197074230664384</v>
+        <v>0.1586170885492066</v>
       </c>
       <c r="D2">
-        <v>0.1536214069556223</v>
+        <v>0.1546096699951676</v>
       </c>
       <c r="E2">
-        <v>0.1108848134335148</v>
+        <v>0.1048429201842751</v>
       </c>
       <c r="F2">
-        <v>0.7260989602140739</v>
+        <v>0.6735973769824994</v>
       </c>
       <c r="G2">
-        <v>0.4338202836153471</v>
+        <v>0.3747646933829429</v>
       </c>
       <c r="H2">
-        <v>0.001006968133762887</v>
+        <v>0.0008008643370149837</v>
       </c>
       <c r="I2">
-        <v>0.0004990269374993694</v>
+        <v>0.0005371113220329349</v>
       </c>
       <c r="J2">
-        <v>0.3605205751231608</v>
+        <v>0.3680664290555029</v>
       </c>
       <c r="K2">
-        <v>0.5216541449313254</v>
+        <v>0.4592129798319959</v>
       </c>
       <c r="L2">
-        <v>0.114744377404655</v>
+        <v>0.222871542506148</v>
       </c>
       <c r="M2">
-        <v>2.953302134296905</v>
+        <v>0.1302208426457945</v>
       </c>
       <c r="N2">
-        <v>0.1134805319408514</v>
+        <v>0.1041753647595804</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.867616483908932</v>
       </c>
       <c r="P2">
-        <v>1.093040988581706</v>
+        <v>0.1308886459206704</v>
       </c>
       <c r="Q2">
-        <v>1.62196853770547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.124804119135447</v>
+      </c>
+      <c r="S2">
+        <v>1.48450105376817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1998515032952071</v>
+        <v>0.1459251324580322</v>
       </c>
       <c r="D3">
-        <v>0.1384715698840182</v>
+        <v>0.1394184867143764</v>
       </c>
       <c r="E3">
-        <v>0.1017348430753025</v>
+        <v>0.09659927208383579</v>
       </c>
       <c r="F3">
-        <v>0.6940229121379176</v>
+        <v>0.6474441269425384</v>
       </c>
       <c r="G3">
-        <v>0.4150248947982718</v>
+        <v>0.3616786198731319</v>
       </c>
       <c r="H3">
-        <v>0.001979281784458276</v>
+        <v>0.001603868728071056</v>
       </c>
       <c r="I3">
-        <v>0.0008479416349933544</v>
+        <v>0.0006568947534932867</v>
       </c>
       <c r="J3">
-        <v>0.3556658443996028</v>
+        <v>0.3627991106676163</v>
       </c>
       <c r="K3">
-        <v>0.4995376019230733</v>
+        <v>0.4434733219916325</v>
       </c>
       <c r="L3">
-        <v>0.1066212069223056</v>
+        <v>0.2233298084371391</v>
       </c>
       <c r="M3">
-        <v>2.574517797084354</v>
+        <v>0.1191673021825572</v>
       </c>
       <c r="N3">
-        <v>0.1048707345562363</v>
+        <v>0.09745877781183765</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.504604166608743</v>
       </c>
       <c r="P3">
-        <v>1.06295914151471</v>
+        <v>0.1206837460680745</v>
       </c>
       <c r="Q3">
-        <v>1.571679826282448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.086423266937331</v>
+      </c>
+      <c r="S3">
+        <v>1.448384519428927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1874314220681157</v>
+        <v>0.1378702545312791</v>
       </c>
       <c r="D4">
-        <v>0.1291891274075425</v>
+        <v>0.1301128370178901</v>
       </c>
       <c r="E4">
-        <v>0.09608761247241659</v>
+        <v>0.09149997329052439</v>
       </c>
       <c r="F4">
-        <v>0.6747790143039936</v>
+        <v>0.6317107364601924</v>
       </c>
       <c r="G4">
-        <v>0.403841826446012</v>
+        <v>0.3539901152210447</v>
       </c>
       <c r="H4">
-        <v>0.002769688021915018</v>
+        <v>0.0022609006434825</v>
       </c>
       <c r="I4">
-        <v>0.001282512735947261</v>
+        <v>0.0009081401441051185</v>
       </c>
       <c r="J4">
-        <v>0.3529355521413819</v>
+        <v>0.3596399423599763</v>
       </c>
       <c r="K4">
-        <v>0.4861356839084294</v>
+        <v>0.4338602294771299</v>
       </c>
       <c r="L4">
-        <v>0.1015702497544169</v>
+        <v>0.2235118674909415</v>
       </c>
       <c r="M4">
-        <v>2.341033582034498</v>
+        <v>0.1130265858162396</v>
       </c>
       <c r="N4">
-        <v>0.09963109882076537</v>
+        <v>0.09326041804191476</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.280575850228871</v>
       </c>
       <c r="P4">
-        <v>1.045194182825341</v>
+        <v>0.1145027190194554</v>
       </c>
       <c r="Q4">
-        <v>1.542076598360794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.063633271326012</v>
+      </c>
+      <c r="S4">
+        <v>1.427134819735159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1818340451461182</v>
+        <v>0.1341166274107763</v>
       </c>
       <c r="D5">
-        <v>0.1254178495026821</v>
+        <v>0.1263329242137701</v>
       </c>
       <c r="E5">
-        <v>0.09372733350922147</v>
+        <v>0.08936272312989502</v>
       </c>
       <c r="F5">
-        <v>0.6666146809906479</v>
+        <v>0.6249656842779245</v>
       </c>
       <c r="G5">
-        <v>0.3990212827004953</v>
+        <v>0.3506160495728707</v>
       </c>
       <c r="H5">
-        <v>0.003141272436759879</v>
+        <v>0.002570677114005715</v>
       </c>
       <c r="I5">
-        <v>0.001584417004939276</v>
+        <v>0.00113681297788748</v>
       </c>
       <c r="J5">
-        <v>0.3517070941974509</v>
+        <v>0.3581946795527884</v>
       </c>
       <c r="K5">
-        <v>0.4802326308878193</v>
+        <v>0.4295067958490151</v>
       </c>
       <c r="L5">
-        <v>0.09940951310329282</v>
+        <v>0.2233526487501756</v>
       </c>
       <c r="M5">
-        <v>2.244811906606429</v>
+        <v>0.1105562579244257</v>
       </c>
       <c r="N5">
-        <v>0.09761472308667862</v>
+        <v>0.09145006581128001</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.188168087584557</v>
       </c>
       <c r="P5">
-        <v>1.038467901245198</v>
+        <v>0.1121200724179445</v>
       </c>
       <c r="Q5">
-        <v>1.529209854157557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.054889783720498</v>
+      </c>
+      <c r="S5">
+        <v>1.417650255164091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1803159620217514</v>
+        <v>0.132994636801115</v>
       </c>
       <c r="D6">
-        <v>0.1248004842339725</v>
+        <v>0.1257143938455982</v>
       </c>
       <c r="E6">
-        <v>0.09327210165750088</v>
+        <v>0.08894659857907428</v>
       </c>
       <c r="F6">
-        <v>0.6647389869087945</v>
+        <v>0.6233475688422985</v>
       </c>
       <c r="G6">
-        <v>0.3977997295880371</v>
+        <v>0.3496655026106197</v>
       </c>
       <c r="H6">
-        <v>0.003209195023186173</v>
+        <v>0.002627429989814134</v>
       </c>
       <c r="I6">
-        <v>0.00173263271224311</v>
+        <v>0.001288097225820017</v>
       </c>
       <c r="J6">
-        <v>0.3512905685699721</v>
+        <v>0.3577406422982321</v>
       </c>
       <c r="K6">
-        <v>0.4786634446521205</v>
+        <v>0.428238007486506</v>
       </c>
       <c r="L6">
-        <v>0.09894432926136432</v>
+        <v>0.2230707807301258</v>
       </c>
       <c r="M6">
-        <v>2.227787190124275</v>
+        <v>0.109996918119613</v>
       </c>
       <c r="N6">
-        <v>0.09741293561889108</v>
+        <v>0.09104980396953621</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.171792569244587</v>
       </c>
       <c r="P6">
-        <v>1.0377800660753</v>
+        <v>0.1118677328850168</v>
       </c>
       <c r="Q6">
-        <v>1.52573506751537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.053883472218118</v>
+      </c>
+      <c r="S6">
+        <v>1.41480888887962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.185752183926482</v>
+        <v>0.1366058102799457</v>
       </c>
       <c r="D7">
-        <v>0.1291618178707523</v>
+        <v>0.1302358519270683</v>
       </c>
       <c r="E7">
-        <v>0.09588401379455647</v>
+        <v>0.09133436077421564</v>
       </c>
       <c r="F7">
-        <v>0.6732300318291138</v>
+        <v>0.6295020526504089</v>
       </c>
       <c r="G7">
-        <v>0.4026117221456147</v>
+        <v>0.3555795403046886</v>
       </c>
       <c r="H7">
-        <v>0.002783078582787368</v>
+        <v>0.002275395902662569</v>
       </c>
       <c r="I7">
-        <v>0.001529349579809214</v>
+        <v>0.001196645802917118</v>
       </c>
       <c r="J7">
-        <v>0.3523286522523534</v>
+        <v>0.3551107420177999</v>
       </c>
       <c r="K7">
-        <v>0.4844387065126909</v>
+        <v>0.4318006640867651</v>
       </c>
       <c r="L7">
-        <v>0.1012529932759598</v>
+        <v>0.2225999452686409</v>
       </c>
       <c r="M7">
-        <v>2.336905048451996</v>
+        <v>0.1123914198243057</v>
       </c>
       <c r="N7">
-        <v>0.09996592181975927</v>
+        <v>0.0929448992933537</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.274864379839698</v>
       </c>
       <c r="P7">
-        <v>1.046256684527364</v>
+        <v>0.11484565010187</v>
       </c>
       <c r="Q7">
-        <v>1.53819603407095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.065440299312982</v>
+      </c>
+      <c r="S7">
+        <v>1.421393905295488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2107698621114906</v>
+        <v>0.15297336539534</v>
       </c>
       <c r="D8">
-        <v>0.1484247750519501</v>
+        <v>0.1499017808406506</v>
       </c>
       <c r="E8">
-        <v>0.1075077354101523</v>
+        <v>0.1018867128314938</v>
       </c>
       <c r="F8">
-        <v>0.7130361594007795</v>
+        <v>0.6602286524100975</v>
       </c>
       <c r="G8">
-        <v>0.4257181846787716</v>
+        <v>0.3778505354933372</v>
       </c>
       <c r="H8">
-        <v>0.001308290774231891</v>
+        <v>0.001055565400518654</v>
       </c>
       <c r="I8">
-        <v>0.0008601262703002988</v>
+        <v>0.0008820330023411316</v>
       </c>
       <c r="J8">
-        <v>0.3580140763367723</v>
+        <v>0.3526699993406979</v>
       </c>
       <c r="K8">
-        <v>0.5118446512530852</v>
+        <v>0.45012801667459</v>
       </c>
       <c r="L8">
-        <v>0.1115741828217338</v>
+        <v>0.2215022491993039</v>
       </c>
       <c r="M8">
-        <v>2.819095204725812</v>
+        <v>0.1250686404493173</v>
       </c>
       <c r="N8">
-        <v>0.1109838010126438</v>
+        <v>0.1014481630230719</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.733313892630179</v>
       </c>
       <c r="P8">
-        <v>1.084087770816836</v>
+        <v>0.1278268615719114</v>
       </c>
       <c r="Q8">
-        <v>1.599448768440638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.115531901102202</v>
+      </c>
+      <c r="S8">
+        <v>1.460233652184058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.260891523336781</v>
+        <v>0.1848812540682019</v>
       </c>
       <c r="D9">
-        <v>0.1863409736759252</v>
+        <v>0.1880745544960263</v>
       </c>
       <c r="E9">
-        <v>0.1303950015310136</v>
+        <v>0.122482699676322</v>
       </c>
       <c r="F9">
-        <v>0.7975080300182853</v>
+        <v>0.728412322702745</v>
       </c>
       <c r="G9">
-        <v>0.4761822958906237</v>
+        <v>0.4164588986924969</v>
       </c>
       <c r="H9">
-        <v>3.483059018916101E-05</v>
+        <v>2.165089967132161E-05</v>
       </c>
       <c r="I9">
-        <v>0.001040994159237307</v>
+        <v>0.001320652411498813</v>
       </c>
       <c r="J9">
-        <v>0.372303154830874</v>
+        <v>0.3634267090213896</v>
       </c>
       <c r="K9">
-        <v>0.5700263598041033</v>
+        <v>0.4910545300503557</v>
       </c>
       <c r="L9">
-        <v>0.1318446547417764</v>
+        <v>0.2205214010842802</v>
       </c>
       <c r="M9">
-        <v>3.762778239739248</v>
+        <v>0.1565509126212667</v>
       </c>
       <c r="N9">
-        <v>0.1323514932489545</v>
+        <v>0.1181030543840933</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.63453573254526</v>
       </c>
       <c r="P9">
-        <v>1.162018126218214</v>
+        <v>0.1533481186590464</v>
       </c>
       <c r="Q9">
-        <v>1.737001553350012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.2153173535783</v>
+      </c>
+      <c r="S9">
+        <v>1.558184005383595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2921224401029292</v>
+        <v>0.2047385106383786</v>
       </c>
       <c r="D10">
-        <v>0.2114259221939392</v>
+        <v>0.2142279368131454</v>
       </c>
       <c r="E10">
-        <v>0.1432069361748951</v>
+        <v>0.1339516897800301</v>
       </c>
       <c r="F10">
-        <v>0.8526272724526791</v>
+        <v>0.7676170080676386</v>
       </c>
       <c r="G10">
-        <v>0.5093098070567663</v>
+        <v>0.4580658639884234</v>
       </c>
       <c r="H10">
-        <v>0.0003769508745232741</v>
+        <v>0.0003618870952579734</v>
       </c>
       <c r="I10">
-        <v>0.002534698813758673</v>
+        <v>0.00276131573705829</v>
       </c>
       <c r="J10">
-        <v>0.3811665864214291</v>
+        <v>0.3480313427994162</v>
       </c>
       <c r="K10">
-        <v>0.606927068278452</v>
+        <v>0.5129046992122426</v>
       </c>
       <c r="L10">
-        <v>0.1416352574780646</v>
+        <v>0.2162547180345733</v>
       </c>
       <c r="M10">
-        <v>4.436540843297507</v>
+        <v>0.1794572995085879</v>
       </c>
       <c r="N10">
-        <v>0.1430057894907506</v>
+        <v>0.12556916482459</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.266944123635255</v>
       </c>
       <c r="P10">
-        <v>1.230029534604398</v>
+        <v>0.1665218220082423</v>
       </c>
       <c r="Q10">
-        <v>1.826226588101292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.304300058121513</v>
+      </c>
+      <c r="S10">
+        <v>1.606896772178743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2726071351891761</v>
+        <v>0.1920178419048568</v>
       </c>
       <c r="D11">
-        <v>0.1977165096206477</v>
+        <v>0.2022159301601079</v>
       </c>
       <c r="E11">
-        <v>0.1178008053334452</v>
+        <v>0.1099769897479064</v>
       </c>
       <c r="F11">
-        <v>0.7993341215558445</v>
+        <v>0.7094858490736726</v>
       </c>
       <c r="G11">
-        <v>0.4753188893319731</v>
+        <v>0.4619994592536329</v>
       </c>
       <c r="H11">
-        <v>0.01894971702033388</v>
+        <v>0.01891656409582865</v>
       </c>
       <c r="I11">
-        <v>0.003505006986872949</v>
+        <v>0.003755507812794434</v>
       </c>
       <c r="J11">
-        <v>0.3608542456253758</v>
+        <v>0.2921419743176017</v>
       </c>
       <c r="K11">
-        <v>0.5686225274304633</v>
+        <v>0.4734537628411388</v>
       </c>
       <c r="L11">
-        <v>0.1097195884825979</v>
+        <v>0.1970479682516597</v>
       </c>
       <c r="M11">
-        <v>4.612575998812304</v>
+        <v>0.1702609522826428</v>
       </c>
       <c r="N11">
-        <v>0.1052984501779477</v>
+        <v>0.09678103318834275</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.418246443577118</v>
       </c>
       <c r="P11">
-        <v>1.319919807507674</v>
+        <v>0.124259343093577</v>
       </c>
       <c r="Q11">
-        <v>1.711798257570791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.411460644565338</v>
+      </c>
+      <c r="S11">
+        <v>1.478124184763402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2527944104391082</v>
+        <v>0.1791479941977059</v>
       </c>
       <c r="D12">
-        <v>0.1812033831055402</v>
+        <v>0.1862581581269609</v>
       </c>
       <c r="E12">
-        <v>0.09671835708823906</v>
+        <v>0.0901666195018187</v>
       </c>
       <c r="F12">
-        <v>0.7456334191674898</v>
+        <v>0.6579813254332834</v>
       </c>
       <c r="G12">
-        <v>0.4418731700446301</v>
+        <v>0.4471443483089956</v>
       </c>
       <c r="H12">
-        <v>0.0575724437954932</v>
+        <v>0.0575406659200226</v>
       </c>
       <c r="I12">
-        <v>0.003557177429303948</v>
+        <v>0.003789828221801628</v>
       </c>
       <c r="J12">
-        <v>0.3428171827655717</v>
+        <v>0.26475751585388</v>
       </c>
       <c r="K12">
-        <v>0.5316138324463182</v>
+        <v>0.4404352887898071</v>
       </c>
       <c r="L12">
-        <v>0.08748584665839232</v>
+        <v>0.1838179827680406</v>
       </c>
       <c r="M12">
-        <v>4.621023050083807</v>
+        <v>0.1591309300251957</v>
       </c>
       <c r="N12">
-        <v>0.07748085747357081</v>
+        <v>0.07760698975098634</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.421072574449283</v>
       </c>
       <c r="P12">
-        <v>1.382487106508265</v>
+        <v>0.09223205380352084</v>
       </c>
       <c r="Q12">
-        <v>1.603179218035621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.481285650262947</v>
+      </c>
+      <c r="S12">
+        <v>1.374137285568594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2292161270392228</v>
+        <v>0.1631710238118558</v>
       </c>
       <c r="D13">
-        <v>0.1617131149044866</v>
+        <v>0.166200805406703</v>
       </c>
       <c r="E13">
-        <v>0.07756637444030545</v>
+        <v>0.07221326155191221</v>
       </c>
       <c r="F13">
-        <v>0.6863081327674436</v>
+        <v>0.6076854140334476</v>
       </c>
       <c r="G13">
-        <v>0.4050629664196208</v>
+        <v>0.4085215716916082</v>
       </c>
       <c r="H13">
-        <v>0.1132209453097062</v>
+        <v>0.1132042880983875</v>
       </c>
       <c r="I13">
-        <v>0.003222550657932644</v>
+        <v>0.003492207005992398</v>
       </c>
       <c r="J13">
-        <v>0.3245267189079044</v>
+        <v>0.2574142736820235</v>
       </c>
       <c r="K13">
-        <v>0.4909749331362647</v>
+        <v>0.408960277060018</v>
       </c>
       <c r="L13">
-        <v>0.07099432566715258</v>
+        <v>0.1733881655235905</v>
       </c>
       <c r="M13">
-        <v>4.496440881512171</v>
+        <v>0.1456148084590616</v>
       </c>
       <c r="N13">
-        <v>0.05627470867664641</v>
+        <v>0.06422957388296346</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.309970202573425</v>
       </c>
       <c r="P13">
-        <v>1.428457258530898</v>
+        <v>0.06699205416864373</v>
       </c>
       <c r="Q13">
-        <v>1.486813341340053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.524221507514184</v>
+      </c>
+      <c r="S13">
+        <v>1.281019155726682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2108503722074744</v>
+        <v>0.1504702145068535</v>
       </c>
       <c r="D14">
-        <v>0.1469160280539796</v>
+        <v>0.1505870711738595</v>
       </c>
       <c r="E14">
-        <v>0.06549086067015786</v>
+        <v>0.06095487316442139</v>
       </c>
       <c r="F14">
-        <v>0.642364885533631</v>
+        <v>0.5726855493998713</v>
       </c>
       <c r="G14">
-        <v>0.3777892223351955</v>
+        <v>0.3721807807977626</v>
       </c>
       <c r="H14">
-        <v>0.1624896383034695</v>
+        <v>0.1624838816633485</v>
       </c>
       <c r="I14">
-        <v>0.002916047225422602</v>
+        <v>0.003243391480848068</v>
       </c>
       <c r="J14">
-        <v>0.311588927227163</v>
+        <v>0.2595955534271397</v>
       </c>
       <c r="K14">
-        <v>0.4608138564527735</v>
+        <v>0.3872259180961066</v>
       </c>
       <c r="L14">
-        <v>0.06292938650486413</v>
+        <v>0.1670414971682916</v>
       </c>
       <c r="M14">
-        <v>4.348523072842795</v>
+        <v>0.1350949785131057</v>
       </c>
       <c r="N14">
-        <v>0.04546522059891345</v>
+        <v>0.05827435129632264</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.179734954576759</v>
       </c>
       <c r="P14">
-        <v>1.453473428468172</v>
+        <v>0.05352536982328715</v>
       </c>
       <c r="Q14">
-        <v>1.40184299085314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.542311443925158</v>
+      </c>
+      <c r="S14">
+        <v>1.219497867663605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2050300039369972</v>
+        <v>0.1463203046269825</v>
       </c>
       <c r="D15">
-        <v>0.1426682247400066</v>
+        <v>0.1459680274753055</v>
       </c>
       <c r="E15">
-        <v>0.06259209911088703</v>
+        <v>0.05826490077062907</v>
       </c>
       <c r="F15">
-        <v>0.6299958605719809</v>
+        <v>0.5636684945132231</v>
       </c>
       <c r="G15">
-        <v>0.3700475366393974</v>
+        <v>0.3591261806426047</v>
       </c>
       <c r="H15">
-        <v>0.174967025392192</v>
+        <v>0.174964439354909</v>
       </c>
       <c r="I15">
-        <v>0.002876838682401406</v>
+        <v>0.003248047586515312</v>
       </c>
       <c r="J15">
-        <v>0.3082052155521851</v>
+        <v>0.2632346235332577</v>
       </c>
       <c r="K15">
-        <v>0.4521579179174964</v>
+        <v>0.3815653336512206</v>
       </c>
       <c r="L15">
-        <v>0.06135757346394577</v>
+        <v>0.1657492386822668</v>
       </c>
       <c r="M15">
-        <v>4.283515517302192</v>
+        <v>0.1318501953273028</v>
       </c>
       <c r="N15">
-        <v>0.04339888040859918</v>
+        <v>0.05722414508417506</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.122636916146973</v>
       </c>
       <c r="P15">
-        <v>1.456050594163514</v>
+        <v>0.05085129697157065</v>
       </c>
       <c r="Q15">
-        <v>1.378311899107189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.541150911210494</v>
+      </c>
+      <c r="S15">
+        <v>1.204886185008448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1962471964318269</v>
+        <v>0.1396662441652694</v>
       </c>
       <c r="D16">
-        <v>0.1363398092496055</v>
+        <v>0.1381836538894134</v>
       </c>
       <c r="E16">
-        <v>0.06142486890437304</v>
+        <v>0.05721410701513641</v>
       </c>
       <c r="F16">
-        <v>0.6182305461024171</v>
+        <v>0.5619369693709615</v>
       </c>
       <c r="G16">
-        <v>0.3629097565473387</v>
+        <v>0.3267976392374337</v>
       </c>
       <c r="H16">
-        <v>0.162094178764093</v>
+        <v>0.1620894615385566</v>
       </c>
       <c r="I16">
-        <v>0.002380712514904459</v>
+        <v>0.002833806947416306</v>
       </c>
       <c r="J16">
-        <v>0.307795381913138</v>
+        <v>0.2928155684103118</v>
       </c>
       <c r="K16">
-        <v>0.4441846253653807</v>
+        <v>0.3814885420554361</v>
       </c>
       <c r="L16">
-        <v>0.06085066330961197</v>
+        <v>0.1695095845644481</v>
       </c>
       <c r="M16">
-        <v>4.019938495134511</v>
+        <v>0.1266880822577683</v>
       </c>
       <c r="N16">
-        <v>0.04374436133060478</v>
+        <v>0.0568676489676947</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.889673420865506</v>
       </c>
       <c r="P16">
-        <v>1.41505396670776</v>
+        <v>0.05131867040825711</v>
       </c>
       <c r="Q16">
-        <v>1.362140084664347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.482771801467507</v>
+      </c>
+      <c r="S16">
+        <v>1.215832880709428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1989862520625536</v>
+        <v>0.1412534185419787</v>
       </c>
       <c r="D17">
-        <v>0.1392281320480322</v>
+        <v>0.1405253882670792</v>
       </c>
       <c r="E17">
-        <v>0.06658645169278898</v>
+        <v>0.06204479430741117</v>
       </c>
       <c r="F17">
-        <v>0.632328202503011</v>
+        <v>0.5784017307390457</v>
       </c>
       <c r="G17">
-        <v>0.3718019452271619</v>
+        <v>0.3242555099745843</v>
       </c>
       <c r="H17">
-        <v>0.1242682247743119</v>
+        <v>0.1242512175727484</v>
       </c>
       <c r="I17">
-        <v>0.002200112717074987</v>
+        <v>0.002680477572134521</v>
       </c>
       <c r="J17">
-        <v>0.3143304228387933</v>
+        <v>0.3124595926614475</v>
       </c>
       <c r="K17">
-        <v>0.4538842631106519</v>
+        <v>0.3924212422322064</v>
       </c>
       <c r="L17">
-        <v>0.06407605670321104</v>
+        <v>0.175840648527366</v>
       </c>
       <c r="M17">
-        <v>3.896235974803574</v>
+        <v>0.1279227953878816</v>
       </c>
       <c r="N17">
-        <v>0.04910406260500189</v>
+        <v>0.05917874761135522</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.777327470109526</v>
       </c>
       <c r="P17">
-        <v>1.370792448030244</v>
+        <v>0.05810213309993628</v>
       </c>
       <c r="Q17">
-        <v>1.394567625633996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.430790440773734</v>
+      </c>
+      <c r="S17">
+        <v>1.254917246410272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2135438240124188</v>
+        <v>0.1511193140625551</v>
       </c>
       <c r="D18">
-        <v>0.1506471577661586</v>
+        <v>0.151797925807557</v>
       </c>
       <c r="E18">
-        <v>0.07933741054961274</v>
+        <v>0.07396522729751176</v>
       </c>
       <c r="F18">
-        <v>0.6718660614657992</v>
+        <v>0.6153772572021339</v>
       </c>
       <c r="G18">
-        <v>0.3966558705957937</v>
+        <v>0.3414827114229269</v>
       </c>
       <c r="H18">
-        <v>0.07143582587040243</v>
+        <v>0.07141546817542377</v>
       </c>
       <c r="I18">
-        <v>0.001935302048522658</v>
+        <v>0.002373181320111328</v>
       </c>
       <c r="J18">
-        <v>0.3280974764694946</v>
+        <v>0.3307437380702467</v>
       </c>
       <c r="K18">
-        <v>0.4814963081800911</v>
+        <v>0.4165177610723347</v>
       </c>
       <c r="L18">
-        <v>0.07413942121924677</v>
+        <v>0.1861185430646124</v>
       </c>
       <c r="M18">
-        <v>3.880254439182295</v>
+        <v>0.1355056700800823</v>
       </c>
       <c r="N18">
-        <v>0.06268211232002585</v>
+        <v>0.06723158471491608</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.761616769300929</v>
       </c>
       <c r="P18">
-        <v>1.318512964989822</v>
+        <v>0.07447472970862989</v>
       </c>
       <c r="Q18">
-        <v>1.476032758265916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.375796705533602</v>
+      </c>
+      <c r="S18">
+        <v>1.330113462417643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2347742750605875</v>
+        <v>0.1653408576310937</v>
       </c>
       <c r="D19">
-        <v>0.1686912413304356</v>
+        <v>0.1699178423385774</v>
       </c>
       <c r="E19">
-        <v>0.09933337686478794</v>
+        <v>0.0927256391469129</v>
       </c>
       <c r="F19">
-        <v>0.727955555693697</v>
+        <v>0.6656472753138019</v>
       </c>
       <c r="G19">
-        <v>0.431457236972804</v>
+        <v>0.370045322319541</v>
       </c>
       <c r="H19">
-        <v>0.02620159626776086</v>
+        <v>0.02619059078033814</v>
       </c>
       <c r="I19">
-        <v>0.002132899922401066</v>
+        <v>0.002592237895493454</v>
       </c>
       <c r="J19">
-        <v>0.3460269000578933</v>
+        <v>0.3482313405225881</v>
       </c>
       <c r="K19">
-        <v>0.5198267733026825</v>
+        <v>0.4482157346273397</v>
       </c>
       <c r="L19">
-        <v>0.09350594583665739</v>
+        <v>0.1983535581393205</v>
       </c>
       <c r="M19">
-        <v>3.946039519714475</v>
+        <v>0.1471333287069783</v>
       </c>
       <c r="N19">
-        <v>0.0873776319626387</v>
+        <v>0.08371633565442238</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.820515861189733</v>
       </c>
       <c r="P19">
-        <v>1.267660806266449</v>
+        <v>0.1031455848988116</v>
       </c>
       <c r="Q19">
-        <v>1.587351713119432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.325399836693222</v>
+      </c>
+      <c r="S19">
+        <v>1.426838982212871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2787969595411539</v>
+        <v>0.1949553422039827</v>
       </c>
       <c r="D20">
-        <v>0.2047832496809434</v>
+        <v>0.2067502484271699</v>
       </c>
       <c r="E20">
-        <v>0.1391572821346365</v>
+        <v>0.1301809214357768</v>
       </c>
       <c r="F20">
-        <v>0.8331018735931437</v>
+        <v>0.755315447630629</v>
       </c>
       <c r="G20">
-        <v>0.4965821586562527</v>
+        <v>0.4332556105832026</v>
       </c>
       <c r="H20">
-        <v>0.0001889870256372994</v>
+        <v>0.000189295894854169</v>
       </c>
       <c r="I20">
-        <v>0.002775216616194065</v>
+        <v>0.003203823062580824</v>
       </c>
       <c r="J20">
-        <v>0.3768002290244254</v>
+        <v>0.3632397351625229</v>
       </c>
       <c r="K20">
-        <v>0.591850534571833</v>
+        <v>0.5041993739849033</v>
       </c>
       <c r="L20">
-        <v>0.1379972958877858</v>
+        <v>0.2162951342779849</v>
       </c>
       <c r="M20">
-        <v>4.250195945910662</v>
+        <v>0.172112534497959</v>
       </c>
       <c r="N20">
-        <v>0.1410898236056113</v>
+        <v>0.1227135570936255</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.098133507344642</v>
       </c>
       <c r="P20">
-        <v>1.216029465549695</v>
+        <v>0.1640615483748533</v>
       </c>
       <c r="Q20">
-        <v>1.789987674759629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.282044675685071</v>
+      </c>
+      <c r="S20">
+        <v>1.5900150592214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3090529350228053</v>
+        <v>0.2170674848773899</v>
       </c>
       <c r="D21">
-        <v>0.2286196664396414</v>
+        <v>0.2344583857472173</v>
       </c>
       <c r="E21">
-        <v>0.1549602832818806</v>
+        <v>0.145210506336781</v>
       </c>
       <c r="F21">
-        <v>0.8911329218170749</v>
+        <v>0.7850438636025743</v>
       </c>
       <c r="G21">
-        <v>0.5321725655466167</v>
+        <v>0.5305869491837569</v>
       </c>
       <c r="H21">
-        <v>0.0006205799757565966</v>
+        <v>0.0005313279446825803</v>
       </c>
       <c r="I21">
-        <v>0.004264384372800301</v>
+        <v>0.00446796431619223</v>
       </c>
       <c r="J21">
-        <v>0.3887531740875971</v>
+        <v>0.2945839746771313</v>
       </c>
       <c r="K21">
-        <v>0.6311675841949338</v>
+        <v>0.5203233758132626</v>
       </c>
       <c r="L21">
-        <v>0.1528542247577178</v>
+        <v>0.2128553904816037</v>
       </c>
       <c r="M21">
-        <v>4.789801325588485</v>
+        <v>0.1901621148993158</v>
       </c>
       <c r="N21">
-        <v>0.1577349768937637</v>
+        <v>0.1345963271491684</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.569933512468936</v>
       </c>
       <c r="P21">
-        <v>1.259368156408144</v>
+        <v>0.1834530852934861</v>
       </c>
       <c r="Q21">
-        <v>1.890796090264814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.357422280016792</v>
+      </c>
+      <c r="S21">
+        <v>1.614916249531376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3288963524332047</v>
+        <v>0.2320708503915796</v>
       </c>
       <c r="D22">
-        <v>0.2427152336769325</v>
+        <v>0.2514134810865016</v>
       </c>
       <c r="E22">
-        <v>0.1635672656068969</v>
+        <v>0.1534749069641919</v>
       </c>
       <c r="F22">
-        <v>0.9270130443493656</v>
+        <v>0.8013050333771119</v>
       </c>
       <c r="G22">
-        <v>0.5546370706278196</v>
+        <v>0.6028959813031065</v>
       </c>
       <c r="H22">
-        <v>0.001221599712347254</v>
+        <v>0.00101785176142144</v>
       </c>
       <c r="I22">
-        <v>0.005218735857539514</v>
+        <v>0.005130909001205275</v>
       </c>
       <c r="J22">
-        <v>0.3962270763466051</v>
+        <v>0.2544316956396244</v>
       </c>
       <c r="K22">
-        <v>0.6561159805538637</v>
+        <v>0.5294070103010498</v>
       </c>
       <c r="L22">
-        <v>0.1605224068783926</v>
+        <v>0.2101106955810863</v>
       </c>
       <c r="M22">
-        <v>5.138512614522597</v>
+        <v>0.201801470512045</v>
       </c>
       <c r="N22">
-        <v>0.1653694542564708</v>
+        <v>0.1405009285280485</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.871189267569036</v>
       </c>
       <c r="P22">
-        <v>1.290022904880118</v>
+        <v>0.1925205951049662</v>
       </c>
       <c r="Q22">
-        <v>1.954277093470068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.410760187485948</v>
+      </c>
+      <c r="S22">
+        <v>1.625568936362129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3202528856742504</v>
+        <v>0.2252482251649184</v>
       </c>
       <c r="D23">
-        <v>0.2351596797997075</v>
+        <v>0.2418921200978588</v>
       </c>
       <c r="E23">
-        <v>0.1591796027559234</v>
+        <v>0.1491723464409169</v>
       </c>
       <c r="F23">
-        <v>0.9095102828946722</v>
+        <v>0.7961508565146076</v>
       </c>
       <c r="G23">
-        <v>0.5439817232015685</v>
+        <v>0.5567897079352946</v>
       </c>
       <c r="H23">
-        <v>0.0008816493217742583</v>
+        <v>0.000746643353187304</v>
       </c>
       <c r="I23">
-        <v>0.004409506347695213</v>
+        <v>0.00442724677725348</v>
       </c>
       <c r="J23">
-        <v>0.3929003514559639</v>
+        <v>0.2823155888278635</v>
       </c>
       <c r="K23">
-        <v>0.6446952816137994</v>
+        <v>0.5275735421392937</v>
       </c>
       <c r="L23">
-        <v>0.1567760632163981</v>
+        <v>0.212606685439372</v>
       </c>
       <c r="M23">
-        <v>4.955929969013653</v>
+        <v>0.1967957155482907</v>
       </c>
       <c r="N23">
-        <v>0.1608467790732888</v>
+        <v>0.1377167321926791</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.718617217452561</v>
       </c>
       <c r="P23">
-        <v>1.272083075146696</v>
+        <v>0.1872232467564174</v>
       </c>
       <c r="Q23">
-        <v>1.92461266623161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.3783332903066</v>
+      </c>
+      <c r="S23">
+        <v>1.629278419392648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2840942978188679</v>
+        <v>0.1989018989549436</v>
       </c>
       <c r="D24">
-        <v>0.2066756374222365</v>
+        <v>0.2086283217413012</v>
       </c>
       <c r="E24">
-        <v>0.1422224209417919</v>
+        <v>0.1330850597801287</v>
       </c>
       <c r="F24">
-        <v>0.8418345057870766</v>
+        <v>0.7633711565003409</v>
       </c>
       <c r="G24">
-        <v>0.5025198218609859</v>
+        <v>0.4380107471147596</v>
       </c>
       <c r="H24">
-        <v>8.433616730285642E-05</v>
+        <v>8.438009607458774E-05</v>
       </c>
       <c r="I24">
-        <v>0.002327143301486423</v>
+        <v>0.00265469903805382</v>
       </c>
       <c r="J24">
-        <v>0.3798514070299746</v>
+        <v>0.3666370872206386</v>
       </c>
       <c r="K24">
-        <v>0.5990122070469539</v>
+        <v>0.5104223428866135</v>
       </c>
       <c r="L24">
-        <v>0.14197411161377</v>
+        <v>0.2187213181342642</v>
       </c>
       <c r="M24">
-        <v>4.257877516366307</v>
+        <v>0.1743666941431137</v>
       </c>
       <c r="N24">
-        <v>0.1445570021930891</v>
+        <v>0.1262969663949249</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.105382258754048</v>
       </c>
       <c r="P24">
-        <v>1.208224869000915</v>
+        <v>0.1679426977724816</v>
       </c>
       <c r="Q24">
-        <v>1.808962541353424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.273890062300524</v>
+      </c>
+      <c r="S24">
+        <v>1.607195312589823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2445956711203792</v>
+        <v>0.1738895623908405</v>
       </c>
       <c r="D25">
-        <v>0.176102765781053</v>
+        <v>0.1775492142373452</v>
       </c>
       <c r="E25">
-        <v>0.1239113155260512</v>
+        <v>0.1165980189385571</v>
       </c>
       <c r="F25">
-        <v>0.7715997532257646</v>
+        <v>0.7082467713092981</v>
       </c>
       <c r="G25">
-        <v>0.4600554622731039</v>
+        <v>0.3997581261013181</v>
       </c>
       <c r="H25">
-        <v>0.0001951937012312221</v>
+        <v>0.0001447555785012433</v>
       </c>
       <c r="I25">
-        <v>0.001181180063491993</v>
+        <v>0.001517771011742219</v>
       </c>
       <c r="J25">
-        <v>0.367137621932585</v>
+        <v>0.3648487757116925</v>
       </c>
       <c r="K25">
-        <v>0.5511677556186925</v>
+        <v>0.4779860540073102</v>
       </c>
       <c r="L25">
-        <v>0.1258872945665672</v>
+        <v>0.2201125490172906</v>
       </c>
       <c r="M25">
-        <v>3.502959244142687</v>
+        <v>0.1467679280972227</v>
       </c>
       <c r="N25">
-        <v>0.127186319848569</v>
+        <v>0.1132073266842397</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.389010763577687</v>
       </c>
       <c r="P25">
-        <v>1.142475875378693</v>
+        <v>0.1471034120389803</v>
       </c>
       <c r="Q25">
-        <v>1.691826570427367</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.188799579967664</v>
+      </c>
+      <c r="S25">
+        <v>1.527565660269119</v>
       </c>
     </row>
   </sheetData>
